--- a/web-interface/resultados.xlsx
+++ b/web-interface/resultados.xlsx
@@ -442,28 +442,28 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Closer SaaS B2B Startup Tecnologica</v>
+        <v>Monitora en inclusión educativa (maestro sombra)</v>
       </c>
       <c r="B2" t="str">
-        <v>La empresa es confidencial o no se encuentra disponible</v>
+        <v>CC INTEGRACION LABORAL</v>
       </c>
       <c r="C2" t="str">
-        <v>Torreón,, Coah.</v>
+        <v>CDMX</v>
       </c>
       <c r="D2" t="str">
-        <v>$20,000 - $25,000 Mensual</v>
+        <v>$8,500 Mensual</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>Ventas</v>
+        <v>Educación</v>
       </c>
       <c r="G2" t="str">
-        <v>Comercial</v>
+        <v>Educación especial</v>
       </c>
       <c r="H2" t="str">
-        <v>Universitario titulado</v>
+        <v>Universitario sin titulo</v>
       </c>
       <c r="I2" t="str">
         <v>Permanente</v>
@@ -472,9 +472,59 @@
         <v>Tiempo completo</v>
       </c>
       <c r="K2" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L2" t="str" xml:space="preserve">
+        <v xml:space="preserve">REQUISITOS:
+Nivel de estudios: Licenciatura (concluida o últimos semestres) Psicología educativa, Pedagogía, Educación especial o afines
+23 a 32 años
+Sexo indistinto
+Estado civil indistinto
+EXPERIENCIA:
+Deseable con niños con autismo, trastornos del neurodesarrollo y/o alguna discapacidad
+HABILIDADES Y COMPETENCIAS:
+Proactiva, comunicación asertiva, responsable, puntual.
+Empatía y sensibilidad emocional, paciencia, tolerancia a la frustración, vocación infantil, compromiso y responsabilidad.
+HORARIO DE TRABAJO:
+De lunes a viernes
+Interesados enviar cv a la dirección de contacto.</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>Closer SaaS B2B Startup Tecnologica</v>
+      </c>
+      <c r="B3" t="str">
+        <v>La empresa es confidencial o no se encuentra disponible</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Torreón,, Coah.</v>
+      </c>
+      <c r="D3" t="str">
+        <v>$20,000 - $25,000 Mensual</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Ventas</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Comercial</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K3" t="str">
         <v>Híbrido</v>
       </c>
-      <c r="L2" t="str" xml:space="preserve">
+      <c r="L3" t="str" xml:space="preserve">
         <v xml:space="preserve">Empresa:
 SuperLeads — Plataforma SaaS que impulsa las admisiones y la matrícula de instituciones educativas en Latinoamérica mediante tecnología inteligente y procesos comerciales impecables.
 Objetivo del rol
@@ -531,66 +581,6 @@
 Founder Comercial SuperLeads</v>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>Psicología</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Autista Feliz, Intelig...</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Veracruz,, Ver.</v>
-      </c>
-      <c r="D3" t="str">
-        <v>$6,000 Mensual</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Educación</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Psicopedagogía</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Universitario titulado</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Permanente</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Medio tiempo</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Presencial</v>
-      </c>
-      <c r="L3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Lic. En Psicología para Evaluación e Intervención en Autismo
-Ubicación: Veracruz, Ver.
-Modalidad: Presencial | Medio tiempo (vespertino) por honorarios.
-Descripción del puesto:
-En AFII buscamos profesionales comprometidos y empáticos para integrarse a nuestro equipo de atención terapéutica y evaluación psicológica dirigida a personas dentro del espectro autista (niños, adolescentes y adultos). El puesto implica la planeación, ejecución y seguimiento de sesiones de intervención psicológica, así como la aplicación de evaluaciones psicológicas.
-Responsabilidades:
-Brindar terapia psicológica individualizada a personas autistas.
-Aplicar evaluaciones psicológicas según el perfil y necesidades del paciente.
-Realizarobservaciones.
-Elaborar planeaciones de las sesiones y actualizar planes de trabajo.
-Trabajar en colaboración con el equipo multidisciplinario.
-Mantener una comunicación efectiva con los cuidadores principales, equipo de terapeutas y dirección.
-Requisitos:
-Licenciatura en Psicología (indispensable contar con título y cédula profesional).
-Gusto y vocación por trabajar con personas dentro del espectro autista.
-Experiencia con población infantil, adolescente y/o adulta (preferente).
-Ser una persona responsable, empática y con disposición para el aprendizaje continuo.
-Ofrecemos:
-Uniformes.
-Bonotrimestral por evaluación de desempeño.
-Honorarios con incremento en caso de contar con maestría en áreas afines (educación especial, neuropsicología, intervención en autismo, entre otras).
-Horario vespertino: lunes a viernes, entrada 2:50, salida 7:00 pm.
-¿Te interesa formar parte de nuestro equipo?</v>
-      </c>
-    </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>TERAPEUTA ESPECIALIZADA EN TEA Y TDAH</v>

--- a/web-interface/resultados.xlsx
+++ b/web-interface/resultados.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,213 +442,1718 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Monitora en inclusión educativa (maestro sombra)</v>
+        <v>Bañador de perritos</v>
       </c>
       <c r="B2" t="str">
-        <v>CC INTEGRACION LABORAL</v>
+        <v>No se muestra la empresa</v>
       </c>
       <c r="C2" t="str">
-        <v>CDMX</v>
+        <v>Sin ubicación</v>
       </c>
       <c r="D2" t="str">
-        <v>$8,500 Mensual</v>
+        <v>$ 9,000 - $ 10,000 Mensual</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>Educación</v>
+        <v>Veterinaria - Agricultura</v>
       </c>
       <c r="G2" t="str">
-        <v>Educación especial</v>
+        <v>Estética canina</v>
       </c>
       <c r="H2" t="str">
-        <v>Universitario sin titulo</v>
+        <v>Bachillerato</v>
       </c>
       <c r="I2" t="str">
-        <v>Permanente</v>
+        <v>Tiempo completo</v>
       </c>
       <c r="J2" t="str">
-        <v>Tiempo completo</v>
+        <v>Jornada completa</v>
       </c>
       <c r="K2" t="str">
-        <v>Presencial</v>
+        <v/>
       </c>
       <c r="L2" t="str" xml:space="preserve">
-        <v xml:space="preserve">REQUISITOS:
-Nivel de estudios: Licenciatura (concluida o últimos semestres) Psicología educativa, Pedagogía, Educación especial o afines
-23 a 32 años
-Sexo indistinto
-Estado civil indistinto
-EXPERIENCIA:
-Deseable con niños con autismo, trastornos del neurodesarrollo y/o alguna discapacidad
-HABILIDADES Y COMPETENCIAS:
-Proactiva, comunicación asertiva, responsable, puntual.
-Empatía y sensibilidad emocional, paciencia, tolerancia a la frustración, vocación infantil, compromiso y responsabilidad.
-HORARIO DE TRABAJO:
-De lunes a viernes
-Interesados enviar cv a la dirección de contacto.</v>
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Bachillerato
+¡¡SÉ PARTE DE NUESTRA COMUNIDAD DE PET PARTNERS COMO BAÑADOR DE PERRITOS EN PETCO CELAYA.
+ESTAMOS CONTRATANDO BAÑADOR CANINO - NO NECESITAS EXPERIENCIA
+Ofrecemos:
+Sueldo base mensual de $8,875.00 + Bono $1,183
+Aumentos Salariales conforme subas de Categoría
+Prestaciones de Ley y Superiores
+Descuentos en PETCO del 20 al 40%
+Capacitación continua / Curso de estética canina ¡GRATUITO!
+Plan de crecimiento, te capacitamos para ser ESTILISTA CANINO PROFESONAL
+Requisitos:
+Amor y trato directo con mascotas
+Experiencia en el baño de mascotas (puedes ser con tus propios perritos)
+Disponibilidad de horario (NO ESTUDIANTES, SE ROLAN TURNOS DE 8 HORAS).
+Gran actitud de servicio, organizado, trabajo en equipo.
+Constancia de Situación Fiscal Actualizada
+Funciones:
+Bañado de perros y gatos.
+Apoyo con recepción de mascotas
+Asesoría al cliente en cuanto al mejor corte para su mascota.
+Apoyo de limpieza en el área
+Turnos rolados lunes a domingo, un descanso entre semana
+Horarios: 8am a 5pm, 10am a 7pm, 12:00 a 9pm</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>Closer SaaS B2B Startup Tecnologica</v>
+        <v>Ejecutivo marketing</v>
       </c>
       <c r="B3" t="str">
-        <v>La empresa es confidencial o no se encuentra disponible</v>
+        <v>No se muestra la empresa</v>
       </c>
       <c r="C3" t="str">
-        <v>Torreón,, Coah.</v>
+        <v>Sin ubicación</v>
       </c>
       <c r="D3" t="str">
-        <v>$20,000 - $25,000 Mensual</v>
+        <v>$ 10,000 - $ 12,000 Mensual</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>Ventas</v>
+        <v>Mercadotecnia - Publicidad - Relaciones Públicas</v>
       </c>
       <c r="G3" t="str">
-        <v>Comercial</v>
+        <v>Mercadotecnia</v>
       </c>
       <c r="H3" t="str">
-        <v>Universitario titulado</v>
+        <v>Diplomado</v>
       </c>
       <c r="I3" t="str">
-        <v>Permanente</v>
+        <v>Tiempo completo</v>
       </c>
       <c r="J3" t="str">
-        <v>Tiempo completo</v>
+        <v>Jornada completa</v>
       </c>
       <c r="K3" t="str">
-        <v>Híbrido</v>
+        <v>Presencial</v>
       </c>
       <c r="L3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Empresa:
-SuperLeads — Plataforma SaaS que impulsa las admisiones y la matrícula de instituciones educativas en Latinoamérica mediante tecnología inteligente y procesos comerciales impecables.
-Objetivo del rol
-Ser la primera línea de crecimiento de SuperLeads: realizar prospección outbound diaria (llamadas, correos y LinkedIn) a nuestro *Ideal Customer Profile* (ICP) para generar al menos 30 conexiones efectivas por día y agendar citas calificadas para nuestro equipo de Account Executives.
-Responsabilidades clave
-Ejecutar cadencias multicanal (teléfono, email, LinkedIn) y mantener registro de todo en SuperLeads &lt;- Usas el mejor CRM para vender el mejor CRM educativo, tu capacitación de explicación esta intimamente ligada a tu uso del CRM para vender!
-Detectar necesidades, calificar leads con criterio Bajo, Medio, Alto y concertar reuniones.
-Alcanzar meta semanal de citas asistidas y tasa de respuesta mínima del 15 %.
-Colaborar con Marketing para nutrir leads y con Closers para retroalimentación de calidad.
-Participar en role-plays, coaching, Talleres, Congresos y workshops internos para elevar tu pitch.
-Representar la cultura SuperLeads: presencia real, comunicación consciente y ritmo sostenible.
-Compensación
-Sueldo base: $12,000 MXN brutos/mes
-De $500 MXN a $5,000 MXN por cada cita calificada que se lleve a cabo.
-Ingreso estimado: $40,000 MXN/mes (base + comisiones). &lt;- Buscamos solo gente responsable
-Prestaciones de ley, laptop y línea telefónica corporativa.
-Requisitos
-5 + año en prospección o telemarketing B2B (ventas SaaS o educación, deseable).
-Dominio de llamadas en frío (que no te de miedo ni flojera), redacción de correos y social-selling en LinkedIn, que te guste escribir.
-Conocimiento básico de CRM (HubSpot o similar) y hábito de documentación rigurosa.
-Actitud hunter (eres un cazador y no paras hasta lograr la cita), resiliencia ante la objeción y enfoque a métricas diarias.
-Excelente ortografía y dicción; gusto por aprender y aportar ideas.
-Disponibilidad tiempo completo en oficina de Torreón.
-Lo que ofrecemos
-Plan de carrera claro a Closer en 12-18 meses según performance.
-Formación continua en metodologías de venta consultiva (SPIN, MEDDICC, Challenger).
-Ambiente de alto desempeño con calidez humana: celebramos logros y cuidamos el bienestar.
-Propósito de impacto: ayudar a colegios y universidades a transformar sus admisiones.
----
-¿Te apasiona la prospección, el contacto humano y el mundo EdTech?
-¡Únete a SuperLeads y conviértete en la chispa que encienda el crecimiento educativo en LATAM!
-Tipo de puesto: Tiempo completo
-Sueldo: A partir de $12,000 MXN al mes &lt;- Esto es el inicial, si no ganas 3 veces más esto al menos, te descontraríamos por que nos hacemos daño, nos gusta que las personas con nosotros gane bien y esto lo demuestra.
-Beneficios:
-Aumentos salariales ritmo Startup
-Días de paternidad superiores a los de la ley
-Laptop y celular de la empresa
-&gt;100 Ventas, Carro de la empresa
-Pago complementario:
-Bono anual &gt;52 ventas en el año
-Bono de productividad Pago por Cita asistida
-Tipo de jornada:
-55 horas semanales mínimo
-Como tu las acomodes
-Pregunta(s) de postulación: (Es importante que tengamos estas respuestas.
-Describe en 2-3 líneas tu logro laboral más sobresaliente
-Si te contratamos, ¿cómo serían tus primeros 100 días en SuperLeads?
-¿Tu puesto como impacta directamente los ingresos de la empresa, exactamente?
-Lugar de trabajo: Empleo presencial o Híbrido.
-Fecha de inicio prevista: 01/08/2025
-Solo aplica si crees que eres Player A, osea un Mini-Ceo, entrepeneur, Motivado siempre, Con deficit de atención, Autismo.
-Nos vemos pronto ó no.
-Ing. Ricardo López Reyero
-Founder Comercial SuperLeads</v>
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Diplomado
+Vacante: Marketing y Redes Sociales para Rones
+¿Te gustan los perritos y eres bueno creando contenido? ???
+En Rones buscamos a alguien que se una a nuestro equipo para:
+? Realizar ediciones de fotos y videos
+? Diseñar memes y publicaciones creativas
+? Manejar redes sociales con estilo fresco y amigable
+? Apoyar con ideas de marketing para promociones
+?? Modalidad: Presencial
+? Horario: Tiempo completo
+?? Ubicación: Veracruz
+?? Requisitos:
+• Creatividad y proactividad
+• Conocimiento en edición de imágenes y videos (Canva, CapCut o similar)
+• Gusto por los perros y por generar contenido dinámico
+• Experiencia manejando redes sociales (Facebook, Instagram, TikTok)
+Si te interesa, mándanos un mensaje con tu CV y portafolio de publicaciones o memes que hayas hecho. ¡Queremos conocerte!</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>TERAPEUTA ESPECIALIZADA EN TEA Y TDAH</v>
+        <v>Encargado de sucursal para pensión de mascotas</v>
       </c>
       <c r="B4" t="str">
-        <v>La empresa es confidencial o no se encuentra disponible</v>
+        <v>Empresa confidencial</v>
       </c>
       <c r="C4" t="str">
-        <v>CDMX</v>
+        <v>Sin ubicación</v>
       </c>
       <c r="D4" t="str">
-        <v>$9,000 - $12,000 Mensual</v>
+        <v>$ 15,000 - $ 18,000 Mensual</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>Ciencias sociales - Humanidades</v>
+        <v>Administrativo</v>
       </c>
       <c r="G4" t="str">
-        <v>Psicología</v>
+        <v>Administración de oficina</v>
       </c>
       <c r="H4" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Bachillerato
+Acerca de la empresa
+Somos una empresa líder en el cuidado y bienestar de mascotas, comprometida con la calidad y la satisfacción de sus clientes. Trabajar con nosotros significa formar parte de un equipo dedicado y apasionado por brindar los mejores servicios a las mascotas caninas y sus dueños.
+Ubicación: Álvaro Obregón, Ciudad de México.
+Requisitos del puesto
+Edad de 25 a 37 años
+Bachillerato completo.
+Conocimiento avanzado de razas de perros.
+Experiencia en veterinaria de primer contacto.
+Indispensable que tenga experiencia en gestiones relacionadas con mascotas.
+Responsabilidades del puesto
+Garantizar la calidad de los servicios de guardería, pensión y estética canina.
+Mantener la limpieza y orden del negocio.
+Supervisar al equipo asignado.
+Registrar, controlar y reportar los servicios diariamente.
+Recepcionar y entregar a las mascotas.
+Atraer y fidelizar a clientes nuevos y existentes.
+Prestaciones y beneficios adicionales
+Sueldo mensual competitivo de 15000 a 18000 más comisiones.
+Oportunidades de crecimiento y desarrollo profesional.
+Ambiente laboral colaborativo y motivador.
+Horario de trabajo: Lunes a Sábado de 09:00 a 18:00 horas.</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="B5" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D5" t="str">
+        <v>$ 2,300 - $ 2,800 Mensual</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Técnico titulado</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Medio tiempo</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Tiempo parcial</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Técnico titulado
+Acerca de la empresa
+'TocToc VET' es una clínica veterinaria líder en el cuidado de mascotas en Zapopan, Jalisco. Con más de 3 años de experiencia, nos enfocamos en brindar servicios de alta calidad y atención individualizada a nuestros clientes y sus mascotas. En TocToc VET, valoramos el bienestar de nuestros empleados y fomentamos un ambiente de trabajo colaborativo y de crecimiento profesional. Ubicación: Solares, Zapopan, Jalisco.
+Requisitos:
+2 años de experiencia comprobable en clínica y cirugía de animales de compañía
+Excelente trato con el cliente
+Empatía con los tutores
+Amor por las mascotas
+Proactividad y trabajo en equipo.
+Responsabilidades del puesto:
+Brindar atención médica general a perros y gatos (consultas, revisiones, urgencias).
+Aplicar protocolos de medicina preventiva: vacunación, desparasitación y orientación a tutores.
+Interpretar análisis clínicos y pruebas diagnósticas.
+Elaborar historias clínicas digitales con precisión.
+Promover prácticas "fear-free" durante el manejo del paciente.
+Comunicar diagnósticos y planes de tratamiento de forma clara, empática y profesional.
+Participar en capacitaciones internas y contribuir al trabajo en equipo.
+Ofrecemos:
+Sueldo competitivo
+Excelente ambiente de trabajo con enfoque ético y profesional.
+Oportunidad de crecimiento
+Instalaciones equipadas
+Descuentos en servicios y productos veterinarios.
+Si te apasiona la medicina veterinaria con propósito y quieres formar parte de un equipo comprometido con el bienestar animal, ¡te estamos buscando!
+---TocToc VET – Donde tratamos a tus mascotas como de la familia.
+Tipo de puesto: Medio tiempo
+Sueldo: A partir de $2,500.00 a la semana
+Horas previstas: 36 por semana
+Beneficios:
+Descuentos y precios preferenciales
+Estacionamiento de la empresa
+Opción a contrato indefinido
+Vacaciones adicionales o permisos con goce de sueldo</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Bañado canino sin experiencia petco Hipódromo $8,875+bono</v>
+      </c>
+      <c r="B6" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D6" t="str">
+        <v>$ 8,875 - $ 10,059 Mensual</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Secundaria</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Secundaria
+En PETCO nos encanta la diversidad, el crecimiento profesional y sobre todo la gente, por ello ¡estamos en bu´squeda de nuestros pro´ximos Pet Partners como:
+"BAÑADORES DE PERRITOS"
+FUNCIONES:
+Ban~ador de perros
+Apoyo a los departamentos dentro de la tienda
+Mantenimiento de equipo de trabajo y apertura y cierre de tienda
+OFRECEMOS:
+Sueldo aproximado de $8,875 aprox ma´s bono $1183.44.
+Incremento de salario a los 2 meses
+Prestaciones de Ley y Superiores
+¡TE ENSEN~AMOS ESTE´TICA CANINA! (CURSO PROFESIONAL)
+ADICIONALES:
+Descuentos con PETCO del 20% al 40%
+Descuentos con Office Depot, Radio Shack, Toks.
+Apoyo de O´ptica, lentes gratuitos para ti y tu familia
+Apoyo de u´tiles escolares
+Caja de ahorro, prestamos de no´mina y prestamos de caja.
+Capacitacio´n y crecimiento
+Uniformes
+No´mina al 100% declarada
+¿QUE NECESITAS?
+Amor a las mascotas
+Tener amor por las mascotas e intere´s por la este´tica canina
+¿Experiencia? ... ¡Puede ser con tus propias mascotas!
+¡Importante! disponibilidad de horario, se labora de lunes a domingo con descanso entre semana y se rolan 2 turnos
+)
+PETCO Salud + Bienestar para tus mascotas
+Unete a nuestros Petpartners!</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>Enfermero - Aplicador de vacunas Veterinario</v>
+      </c>
+      <c r="B7" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D7" t="str">
+        <v>$ 14,000 - $ 16,000 Mensual</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Diplomado</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Diplomado
+Propósito del puesto
+Brindar atención médica veterinaria profesional en la aplicación de vacunas a perros y gatos, ya sea en domicilio o en campañas organizadas por VIVIEN. Garantizar la seguridad, calidad y bienestar animal durante todo el proceso. Además, ofrecer orientación médica básica a tutores mediante consultas virtuales, resolviendo dudas pre y post vacunación.
+Responsabilidades principales
+Atención en domicilio (Realizar revisión física básica previa a la vacunación, aplicar la(s) vacuna(s) de acuerdo con lineamientos médicos y cadena de frío, llenar consentimiento informado y obtener firma digital o física del tutor, registrar cita y firma de aplicación en el sistema y ofrecer recomendaciones post-vacunación al tutor)
+Campañas de vacunación (Participar en el montaje y operación de campañas masivas (parques, fraccionamientos, eventos),
+. Consultas en línea (vía WhatsApp, plataforma o videollamada) Atender dudas básicas sobre protocolos de vacunación, síntomas postvacunales o requerimientos previos.
+Actividades administrativas inherentes al puesto
+Formación requerida
+Médico Veterinario Zootecnista (MVZ) titulado o pasante con carta de pasantía vigente.
+Deseable: Diplomado o experiencia en vacunación, medicina preventiva y bienestar animal.
+Experiencia previa
+Mínimo 1 año en atención clínica o vacunación de perros y gatos.
+Deseable experiencia en atención domiciliaria o campañas comunitarias.
+Conocimientos técnicos
+Manejo de esquemas de vacunación en perros y gatos.
+Identificación de signos clínicos básicos.
+Manejo y contención segura de animales.
+Bioseguridad, higiene y cadena de frío.
+Deseable: conocimientos básicos de plataformas digitales de atención o CRM.
+Competencias
+Trato amable y empático hacia tutores y animales.
+Alta responsabilidad y profesionalismo.
+Puntualidad y manejo eficiente del tiempo.
+Resolución de problemas y toma de decisiones básicas.
+Adaptabilidad a campo y trabajo en movimiento.
+Buena presentación e higiene personal.</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>Gerente de operaciones de cadena de suministros / giro restaurantero</v>
+      </c>
+      <c r="B8" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D8" t="str">
+        <v>$ 40,000 - $ 50,000 Mensual</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Manufactura - Producción - Operación</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Operaciones</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Técnico titulado</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Técnico titulado
+¡Forma parte de nuestro equipo en PERROS Y BURROS!
+Buscamos Gerencia de operaciones de cadena de suministros para liderar y optimizar nuestras operaciones en el sector de restaurantes y alimentos.
+Necesitas para aplicar:
+Experiencia en cadenas de suministros giro restaurantero, alimentos prerecedeos, comisariato
+Licenciatura en Ingeniería Industrial, Administración de Empresas, Logística, Comercio Internacional, Finanzas o afines.
+Lunes a viernes de 07:00 a 17:00 hrs y sabado de 07:00 a 12:00 hrs
+Tlalnepantla de Baz, frente plaza Fashion Mall
+Compensación:
+Sueldo libre mensual $40,000 mil
+Bono mensual $20,000 mil
+Prestaciones de ley
+Responsabilidades clave:
+Gestión estratégica de la cadena de suministro, con un enfoque especial en la industria de productos perecederos
+Optimización de costos, implementación de estrategias de mejora continua y sustentabilidad
+Gestión de presupuestos importantes y proyectos enfocados en la eficiencia operativa y la diversificación de proveedores
+Gestión de logística
+Colaborar con los equipos de producción para planificar y gestionar la producción de alimentos
+Planificar y coordinar la logística de recepción, almacenamiento y distribución de insumos
+Realizar análisis financieros y elaboración de estados de resultados.
+Conocimientos:
+Planificación, análisis y pronóstico de la demanda, así como de costos de producción y distribución
+Finanzas y costos
+Procesos de certificación y auditorías de calidad alimentaria
+Normativas de seguridad e higiene alimentaria (HACCP, NOM-251, ISO 22000).
+Cadena de Frio
+Producciòn, almacen, logistica y compras
+Soft skills:
+Liderazgo
+Comunicaciòn asertiva
+Toma de desiciones
+Orientaciòn a resultados
+Negociaciòn</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>Bañador canino Petco patio santa fé</v>
+      </c>
+      <c r="B9" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D9" t="str">
+        <v>$ 8,875 - $ 10,040 Mensual</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Secundaria</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Secundaria
+PETCO MÉXICO
+Mascotas más Saludables, Personas más Felices
+Bañador canino,
+Requisitos:
+· Trayectoria laboral de 1 año en el medio (ideal), estéticas caninas, fijas, móviles, guarderías, hoteles o a fin.
+· Haber desempeñado el puesto durante 3 meses, o baño de mascotas propias, nosotros te capacitamos
+· Conocimientos básicos protocolos de seguridad e higiene
+· Conocimiento básico en comportamiento canino
+· Generales en razas de perros, razas
+· Manejo de mascotas o mascotas propias
+· Generales en bienestar animal
+· Herramientas de trabajo acordes a la actividad
+Funciones:
+· Cuidado, la atención, seguridad y bienestar de los animales durante su estancia en la estética animal
+· Uso y manejo todas las instalaciones, sistemas, equipos, herramientas y servicios necesarios para la operación diaria de la estética animal
+· Inspección visual de manera minuciosa sobre el estado de salud general del perro
+· Brindar información necesaria sobre costos de los servicios de estética, promociones, términos, condiciones y políticas generales
+· Venta complementaria de productos, mercancías y artículos de la tienda
+· Ejecutar los protocolos establecidos de sanidad, higiene y limpieza de las instalaciones, sistemas, equipos y herramientas
+· Ejecutar el protocolo establecido para el abasto y resurtido de los insumos necesarios en el área de baño de los animales
+Habilidades:
+· Gusto por los perritos
+· Actitud de servicio al cliente
+· Manejo del estrés
+· Empatía
+· Ordenado
+· Paciente
+· Disciplinado
+· Carismático
+Beneficios:
+Contratación directa por la empresa
+Esquema 100% nominal
+Seguro
+Aguinaldo
+Vacaciones
+Caja de ahorro
+Programa de útiles escolares
+Programa de lentes
+Oportunidad de desarrollo
+Oportunidad de crecimiento laboral
+Estabilidad laboral</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>Técnico en alimentación y cuidado de las mascotas</v>
+      </c>
+      <c r="B10" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Sueldo no mostrado por la empresa</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Administrativo</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Administración</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Diplomado</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Diplomado
+Técnico de alimentación y cuidado de las mascotas
+UBICACIÓN: QRO
+El enfoque de este rol es proporcionar cuidado diario a las mascotas en el Centro de Mascotas. El Cuidador de Mascotas es el responsable de garantizar el bienestar de los perros y gatos en el Centro de Mascotas. Responsable de todas las actividades de socialización y enriquecimiento del programa de asistencia social. Además, es el responsable de la alimentación y el riego en función del horario de los ensayos.
+Qué estamos buscando?
+Atención al detalle
+Disciplina
+Confidencialidad
+Manejo Excel, Power Point, algún software (captura de datos)
+Conocimientos básico de computación
+Convivencia y manejo de mascotas
+Entrenamientos de adiestramiento
+Lleno de bitácoras, generación de reportes
+Cuáles serán las responsabilidades principales?
+Cuida de los perros y gatos en el Centro de Mascotas.
+Ejecutar el programa de socialización (incluido el aseo), actividades para que las mascotas mantengan sus sentidos estimulados y libres de estrés para evitar cualquier impacto en el rendimiento de las pruebas.
+Ejecutar las actividades del programa de control de peso.
+Notifique a los veterinarios cuando se note un cambio en la salud y el comportamiento de cualquier mascota.
+Ejecutar la alimentación y el riego.
+Ejecutar ensayos, cumpliendo con los estándares metodológicos y documentar toda la información asegurando la confiabilidad en los resultados.
+Recogida y evaluación de la calidad de las heces.
+Asegúrese de que la infraestructura esté bien mantenida y, en caso de cualquier problema, notifique al técnico de ensayos para su corrección, asegurándose de que se resuelva.</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>Estilista canino</v>
+      </c>
+      <c r="B11" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D11" t="str">
+        <v>$ 10,000 - $ 12,000 Mensual</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Secundaria</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Secundaria
+Acerca de la empresa
+Acerca de la empresa: D'Perros es una estética veterinaria especializada en el cuidado y bienestar de las mascotas. Buscamos brindar un servicio integral y de calidad a todos nuestros clientes. Valoramos el trabajo en equipo, la pasión por los animales y el compromiso con la excelencia en cada tarea realizada.
+Ubicación:
+Jiutepec, Morelos.
+Requisitos del puesto
+Experiencia previa en Estética canina.
+Estudios mínimos de Secundaria.
+Conocimientos en corte de raza y baños avanzados.
+Habilidad en el manejo de mascotas.
+Responsabilidades del puesto
+Realizar cortes de raza y baños avanzados de acuerdo a las especificaciones de los clientes.
+Brindar un trato amable y profesional a las mascotas durante el proceso de estilismo.
+Mantener la limpieza y orden en el área de trabajo.
+Seguir las normas de higiene y seguridad establecidas por la empresa.
+Prestaciones y beneficios adicionales:
+- Sueldo competitivo basado en tus habilidades.
+- Oportunidades de crecimiento y desarrollo profesional.
+- Ambiente de trabajo agradable y dinámico.</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>MEDICO VETERINARIO ZOOTECNISTA</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Empresa confidencial</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Sueldo no mostrado por la empresa</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Diplomado</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Diplomado
+Médico Veterinario Titulado
+Enfocado a pequeñas especies ( perros y gatos ).
+Hombre o Mujer (25 a 45 años)
+Con cedula profesional de MVZ.
+Buena presentación.
+Excelente atención y trato al cliente.
+Indispensable sentido de la responsabilidad.
+Capacidad de trabajo en equipo.
+Disponibilidad para realizar turnos mixtos (diurnos/nocturnos).
+Capacidades y funciones:
+Consulta médica y preventiva a perros y gatos.
+Redacción de receta médica y calculo adecuado de dosis.
+Manejo de equipo e interpretación radiológica / ultrasonido.
+Manejo de equipo de laboratorio y entendimiento de resultados.
+Manejo y capacidad resolutiva de casos clínicos en perros y gatos.
+Capacidad de procedimientos quirúrgicos básicos de tejidos blandos.
+Manejo de pacientes en hospitalización, capacidad de canalizar, medicar, tomar muestras de sangre y de orina.</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>350 - Especialista en Medicina y Cirugía de Perros y Gatos</v>
+      </c>
+      <c r="B13" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Sueldo no mostrado por la empresa</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Diplomado</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Diplomado
+Te invitamos a participar en la vacante de Empleo como Especialista en Medicina y Cirugía de Perros y Gatos en la empresa DogTor Cancun.
+Licenciaturas:
+Medicina Veterinaria y Zootecnia
+Horario:
+Lunes a viernes de 11:00 am a 19:00 pm y sábados de 09:00 am a 17:00 pm?
+Requisitos:
+• Consulta de medicina interna.
+• Interpretación de imagenología.
+• Manejo médico hospitalario.
+• Manejo intermedio de enfermedades: cardiología, oftalmología, endocrinología, ortopédicas, infecciosas.
+• Manejo intermedio de terapia intensiva y manejo de urgencias.
+• Ejecución de procedimientos quirúrgicos especializados en pequeñas especies.
+• Evaluación preoperatoria, desde revisión clínica, historial médico, examen físico y estudios complementarios.
+• Planificación quirúrgica: elección de anestesia, protocolos anestésicos y quirúrgicos, y definición de materiales y equipos necesarios.
+• Manejo del dolor: protocolos de analgesia y control del dolor durante y después de la cirugía.
+• Monitoreo intraoperatorio: vigilar signos vitales y estado anestésico, ajustando según sea necesario.
+• Cuidados postoperatorios: supervisión de heridas, administración de medicamentos, control de infecciones y recomendaciones para recuperación.
+• Comunicación con propietarios, explicación de procedimientos, riesgos, cuidados y pronóstico.</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>Cuidador canino</v>
+      </c>
+      <c r="B14" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D14" t="str">
+        <v>$ 8,400 Mensual</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Bachillerato
+Buscamos un apasionado o apasionada del cuidado canino que se una a nuestro equipo en nuestras sucursales en la CDMX (Anzures, Narvarte, Nápoles, Colonia del Valle, Insurgentes, ). Somos una empresa líder en el cuidador y bienestar de los perritos. Nos destacamos por ofrecer servicios de alta calidad y contar con equipo altamente capacitado que busca promover el amor y respeto hacia los animales.
+Responsabilidades:
+Mantenimiento de la higiene y salud de las mascotas.
+Limpieza de las instalaciones
+Administración de medicamentos y seguimiento de tratamientos.
+Inspecciones físicas diarias para garantizar el bienestar animal.
+Supervisión de la interacción segura entre los perros.
+Atención ocasional a clientes, ofreciendo un servicio excepcional
+Requisitos del puesto
+Experiencia previa en cuidado animal o puestos similares.
+Habilidades de comunicación efectiva y servicio al cliente.
+Capacidad para trabajar en equipo y bajo presión.
+Disponibilidad para trabajar en horarios flexibles
+Ofrecemos:
+Ambiente laboral positivo y orientado al crecimiento profesional.
+Oportunidades de formación y desarrollo continuo.
+Reconocimiento y recompensas por desempeño sobresaliente.
+Beneficios por ser parte de nuestro equipo en nuestros diferentes servicios y productos.
+Estabilidad laboral.
+Cómo Postularse:
+SI ESTAS INTERESADO O INTERESADA EN EL EMPLEO, MANDA UN MENSAJE AL CORREO ELECTRONICO O NÚMERO DE WHATSSAP QUE SE OBSERVA EN LA VACANTE, CON EL SIGUIENTE ASUNTO: "ESTOY INTERESADO/DA EN SER CUIDADOR/A CANINA"</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>Médico veterinario zootecnista</v>
+      </c>
+      <c r="B15" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D15" t="str">
+        <v>$ 25,000 - $ 35,000 Mensual</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Diplomado</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Diplomado
+REQUISITOS:
+Especialista en medicina interna y cirugía de perros y gatos
+3 años de experiencia como cirujano
+Deseable Inglés intermedio
+Experiencia sólida en realización de cirugías
+RESPONSABILIDADES:
+Consulta de medicina interna
+Interpretación de imagenología
+Manejo médico hospitalario.
+Manejo intermedio de enfermedades: Cardiología, oftalmología, endocrinología, ortopédicas, infecciosas.
+Manejo intermedio de terapia intensiva y manejo de urgencias
+Ejecución de procedimientos quirúrgicos especializados en pequeñas especies
+Evaluación preoperatoria, desde revisión clínica, historial médico, examen físico y estudios complementarios
+Planificación quirúrgica. Elección de anestesia, protocolos anestésicos y quirúrgicos, y definición de materiales y equipos necesarios.
+Manejo del dolor. Protocolos de analgesia y control del dolor durante y después de la cirugía
+Monitoreo intraoperatorio. Vigilar signos vitales y estado anestésico, ajustando según sea necesario.
+Cuidados postoperatorios. Supervisión de heridas, administración de medicamentos, control de infecciones y recomendaciones para recuperación.
+Comunicación con propietarios, explicación de procedimientos, riesgos, cuidados y pronóstico</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>Medico Especialista en medicina interna y cirugia</v>
+      </c>
+      <c r="B16" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D16" t="str">
+        <v>$ 35,000 - $ 42,000 Mensual</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Sector salud</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Especialidades médicas</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Diplomado</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Diplomado
+Acerca de la empresa
+Hospital Veterinario de alta especialidad, enfocada en atención avanzada y especializada en diversas áreas de la medicina veterinaria. Por expansión esta en busqueda de un; Medico Especialista en medicina interna y cirugia
+Requisitos del puesto:
+Especialista en medicina interna y cirugia de perros y gatos
+Experiencia de dos años como medico veterinario
+Experiencia en realización de cirugías
+Responsabilidades del puesto:
+Realizar de cirugías; ejecutar procedimientos quirúrgicos especializados en pequeñas especies (perros, gatos, otras mascotas), desde tejidos blandos hasta ortopédicas con técnicas e instrumental adecuado.
+Evaluación preoperatoria; revisión clínica completa, historial médico, examen físico y estudios complementarios (laboratorio, radiografías, ecografías) para detectar factores de riesgo. -
+Planificación quirúrgica; elegir tipo de anestesia, preparar protocolos anestésicos y quirúrgicos, y definir materiales y equipos necesarios.
+Manejo del dolor; Aplicar protocolos de anestesia, analgesia y control del dolor durante y después de la cirugía para el bienestar del paciente
+Monitoreo intraoperatorio; vigilar signos vitales y estado anestésico, ajustando según sea necesario.
+Cuidados postoperatorios; Supervisar heridas, administrar medicamentos, controlar infecciones y dar recomendaciones para recuperación.
+Comunicación con propietarios; Explicar procedimiento, riesgos, cuidados y pronóstico para asegurar confianza y cumplimiento.
+Documentación; Registrar detalladamente indicación quirúrgica, procedimientos, evolución y alta médica.
+Gestión del quirófano:; Mantener esterilidad, controlar inventarios de instrumental y materiales, y asegurar calidad y bioseguridad.
+Ofrecemos:
+Sueldo mensual: nominal: $42,000
+Lunes a sabado: 10:00am a 6:00pm (Disponibilidad de guardias nocturnas)
+Prestaciones de ley
+Se brindan cursos especializados para mantenerse al día con técnicas y avances
+Desarrollo y crecimiento profesional
+Ubicación: Av de los grandes Lagos 192-4 fluvial Vallarta, CP 48313, Puerto Vallarta
+Si cuentas con el perfil postulate por este medio</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>Medico veterinario cirujano</v>
+      </c>
+      <c r="B17" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D17" t="str">
+        <v>$ 35,000 - $ 42,000 Mensual</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Diplomado</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Diplomado
+Importante hospital veterinario de alta especialidad, por expansión se encuentra en busca de “Médico Veterinario Especialista en cirujias”
+REQUISITOS:
+· Lic. En medicina interna con especialidad como cirujano veterinario
+· 3 años de experiencia como cirujano
+· Deseable Inglés básico intermedio
+RESPONSABILIDADES:
+· Consulta de medicina interna
+· Interpretación de rayos x.
+· Interpretación de pruebas de laboratorio.
+· Manejo médico hospitalario. Manejo básico de ultrasonido ( a fast - t fast).
+· Manejo básico de enfermedades: Cardiología, oftalmología, endocrinas, ortopédicas, infecciosas.
+· Manejo básico de terapia intensiva, anestesia y manejo de urgencias
+· Cirugías para perros y gatos
+· Evaluación preoperatoria y cuidados post operatorios
+OFRECEMOS:
+· Sueldo mensual 42,000 nominales
+· Pago quincenal
+· Prestaciones de ley
+· Horario de lunes a sábado 10 am a 6 pm
+· Disponibilidad para realizar guardias nocturnas
+· Desarrollo profesional
+· Ubicados en Fluvial Vallarta
+Si cumples con estos requisitos, por favor postúlate por este medio y ven a formar parte de este gran equipo de trabajo.</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Bañador de Perritos - Fortuna Linda Vista</v>
+      </c>
+      <c r="B18" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D18" t="str">
+        <v>$ 8,500 - $ 9,000 Mensual</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Secundaria</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Secundaria
+¿Quieres aprender de estilismo canino? ¡Nosotros te enseñamos!
+SÉ PARTE DE NUESTRA COMUNIDAD DE PET PARTNERS COMO BAÑADOR DE PERRITOS EN PETCO FORTUNA/ ATANA LINDA VISTA (Zona norte)
+Ofrecemos:
+Sueldo base mensual de $8,800 + Bono $1,100
+Aumentos Salariales conforme subas de Categoría
+Prestaciones de Ley y Superiores
+Descuentos en PETCO del 20 al 40%
+Capacitación continua / Curso de estética canina ¡GRATUITO!
+Plan de crecimiento, te capacitamos para ser ESTILISTA CANINO PROFESONAL
+Requisitos:
+Amor y trato directo con mascotas
+Experiencia en el baño de mascotas (puedes ser con tus propios perritos)
+Disponibilidad de horario (NO ESTUDIANTES, SE ROLAN TURNOS).
+Gran actitud de servicio, organizado, trabajo en equipo.
+Constancia de Situación Fiscal Actualizada
+Funciones:
+Bañado de perros y gatos.
+Apoyo con recepción de mascotas
+Asesoría al cliente en cuanto al mejor corte para su mascota.
+Apoyo de limpieza en el área
+Adjunta tu CV / Solicitud, ¡En breve te contactaremos!</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Dos señoras para limpieza de quedada para zona valle Monterr</v>
+      </c>
+      <c r="B19" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Sin ubicación</v>
+      </c>
+      <c r="D19" t="str">
+        <v>$ 14,000 - $ 16,000 Mensual</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Servicios generales - Oficios - Seguridad</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Limpieza</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Secundaria</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Secundaria
+?Dos señoras para limpieza de quedada para zona Valle Monterrey
+? Familia en zona valle solicita.
+?una señora que trabaja, de lunes a viernes.
+?otra señora trabaja, fin de semana entra viernes al medio día, y sale lunes al medio día.
+? requiere hacer limpieza y algo de cocina básica.
+? requiere haber trabajado mínimo con familias durante 3 años, y tener referencias.
+? gusto por atender perros mansitos.
+? ofrecemos de $3,500 a $4,000. libres semanales.
+? Prestaciones de ley.
+? trabajo de Planta.</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Bañador canino sin experiencia, apertura Bosque Real Petco L</v>
+      </c>
+      <c r="B20" t="str">
+        <v>UNIDAD DE SERVICIOS CO...</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Naucalpan de Juárez,, Edo. Méx.​</v>
+      </c>
+      <c r="D20" t="str">
+        <v>$8,875 - $10,946 Mensual</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Ventas</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Venta al detalle - Retail</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L20" t="str" xml:space="preserve">
+        <v xml:space="preserve">PETCO MÉXICO
+Mascotas más Saludables, Personas más Felices, te gusta convivir con las mascotas, te gustaría aprender desde 0 de la estética canina y certificarte como estilista canino logrando una estabilidad laboral, capacitándote, recibiendo un salario con prestaciones desde el día 1, esta es tú oportunidad.
+Bañador canino, bañador canino sin experiencia nosotros te capacitamos
+Requisitos:
+Conocimiento básico en comportamiento canino
+Generales en razas de perros, razas
+Manejo de mascotas o mascotas propias
+Generales en bienestar animal
+Experiencia en baño de mascotas propias
+Cuidado y bienestar a las mascotas
+Disponibilidad para trabar de lunes a domingo, descanso entre semana
+Poder rolar turnos cada 15 días de 7 a 4 de 8 a 5 de 9 a 6 de 10 a 7 de 11 a 8
+Funciones:
+Cuidado, la atención, seguridad y bienestar de los animales durante su estancia en la estética animal
+Uso y manejo todas las instalaciones, sistemas, equipos, herramientas y servicios necesarios para la operación diaria de la estética animal
+Ejecutar los protocolos establecidos de sanidad, higiene y limpieza de las instalaciones, sistemas, equipos y herramientas
+Ejecutar el protocolo establecido para el abasto y resurtido de los insumos necesarios en el área de baño de los animales
+Habilidades:
+Gusto por los perritos
+Actitud de servicio al cliente
+Manejo del estrés
+Empatía
+Ordenado
+Paciente
+Disciplinado
+Carismático
+Beneficios:
+Contratación directa por la empresa
+Esquema 100% nominal
+Seguro
+Aguinaldo
+Vacaciones
+Caja de ahorro
+Programa de útiles escolares
+Programa de lentes
+Oportunidad de desarrollo
+Oportunidad de crecimiento laboral
+Estabilidad laboral
+Zona para laborar:
+Blvrd Bosque Real 2-1B, Bosque Real, C.P. 52774 Ciudad de México, Méx.</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Especialista en Masajes y Entrenamiento Físico – Posición Hí</v>
+      </c>
+      <c r="B21" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Lomas de Chapultepec I Sección,, Miguel Hidalgo,, CDMX</v>
+      </c>
+      <c r="D21" t="str">
+        <v>$15,000 - $17,000 Mensual</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Deportes - Salud - Belleza</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Masajista</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Técnico</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sobre el Cliente
+Hombre de 43 años en proceso de recuperación tras dos cirugías (rodilla y hombro).
+10 años sin entrenamiento físico; requiere rutinas suaves, progresivas y enfocadas en rehabilitación y fortalecimiento general.
+Objetivo:* Alcanzar un nivel avanzado en calistenia, ashtanga yoga, escalada y ejercicios de animales. Me preparo para una práctica de meditación avanzada que requiere fuerza física.
+Requisitos
+(Tendrá como compañeras de trabajo a dos colaboradoras (sexo femenino), quienes forman parte del equipo y brindan apoyo en tareas de limpieza, cuidado de los perros y asistencia directa a mí.).
+Disponibilidad para trabajo *presencial* de lunes a viernes en Lomas de Chapultepec, CDMX, *6 horas diarias* (9am a 3pm).
+Experiencia comprobable como *masajista* y *aptitud en entrenamiento físico*, con posibilidad de capacitarse en entrenamiento conforme yo vaya avanzando.
+Conocimientos y experiencia en *uno o más de los siguientes estilos de masaje*:
+Sueco
+Reflexología
+Deportivo
+Reductivo
+Drenaje linfático
+Flexibilidad de horario: la prioridad es acompañar y asistir en las rutinas del cliente; en tiempos libres puedes entrenar por tu cuenta.
+Disponibilidad para viajar a Tequesquitengo* por periodos de hasta una semana o más (transporte, alimentos y hospedaje cubiertos).
+Responsabilidades
+Realizar *dos sesiones de ejercicio personalizadas* al día (1 hora cada una), con descanso entre ambas.
+Apoyar en el proceso de *rehabilitación física*, adaptando los ejercicios al estado actual del cliente y asegurando una progresión segura.
+Supervisar y motivar durante el entrenamiento, asegurando la correcta ejecución de los ejercicios y evitando riesgos de lesión.
+Enfocar el entrenamiento en *calistenia avanzada, ashtanga yoga, escalada y ejercicios de animales* conforme el cliente gane fuerza y movilidad.
+Realizar *una sesión diaria de masaje (1 hora)*, eligiendo la técnica más adecuada según las necesidades del cliente.
+Aprovechar el gimnasio completamente equipado (incluye área de travesía para escalar).
+Durante viajes, compartir recámara con dos mujeres de apoyo habituales. En Tequesquitengo, actividades incluyen entrenamiento en alberca, barras paralelas y caminatas con perros junto al río.
+Perfil Deseado
+Experiencia comprobable en *masaje terapéutico* (al menos uno de los estilos mencionados) y aptitud/interés en entrenamiento físico.
+Conocimientos en calistenia, yoga, escalada y ejercicios funcionales (deseable).
+Actitud paciente, empática y motivadora.
+Compromiso, responsabilidad y discreción.
+Ofrecemos
+Sueldo mensual: $15,000 MXN, con posibilidad de aumento si te integras bien al equipo y demuestras un buen desempeño.
+*Ambiente de trabajo seguro, equipado y positivo:* Espacios cómodos y todo lo necesario para entrenar y desarrollarte profesionalmente.
+*Oportunidad de crecimiento económico:* Posibilidad de incrementar ingresos según desempeño y compromiso.
+*Apoyo integral durante viajes:* Transporte, alimentos y hospedaje cubiertos fuera de la ciudad.
+Si cumples con el perfil y te interesa formar parte de este proyecto de recuperación y acondicionamiento físico a largo plazo, *¡esperamos tu postulación!*</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>VETERINARIO/ AUXILIAR VETERINARIO</v>
+      </c>
+      <c r="B22" t="str">
+        <v>CRIADERO DEL MASTIN NA...</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Álvaro Obregón,, CDMX</v>
+      </c>
+      <c r="D22" t="str">
+        <v>$12,000 Mensual</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Entrenamiento canino</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L22" t="str" xml:space="preserve">
+        <v xml:space="preserve">ACERCA DE NOSOTROS
+Experiencia en la cría del Mastín Napolitano, todos nuestros Mastín tienen una magnífica genética.
+Nuestro equipo de profesionales, los cuales, mantienen una atención individualizada y unos grandes cuidados en todo momento en nuestro criadero de Mastín Napolitano.
+¡UNETE A NUESTRO EQUIPO!
+DISPONIBILIDAD DE TIEMPO
+Horario
+Lunes a Sábado de
+8:30 am a 6:30 pm
+Sueldo mensual: $12,000 neto
+Excelente ambiente laboral
+Requisitos y Responsabilidades del puesto
+- Atención y cuidado de perros
+- Limpieza de perreras
+- Paseo de perros
+- Asistencia en crianza y reproducción de perros
+Si cumples con el perfil, Postúlate por este medio</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>AYUDANTE GENERAL</v>
+      </c>
+      <c r="B23" t="str">
+        <v>CRIADERO DEL MASTIN NA...</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Álvaro Obregón,, CDMX</v>
+      </c>
+      <c r="D23" t="str">
+        <v>$12,000 Mensual</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L23" t="str" xml:space="preserve">
+        <v xml:space="preserve">ACERCA DE NOSOTROS
+Experiencia en la cría del Mastín Napolitano, todos nuestros Mastín tienen una magnífica genética.
+Nuestro equipo de profesionales, los cuales, mantienen una atención individualizada y unos grandes cuidados en todo momento en nuestro criadero de Mastín Napolitano.
+¡UNETE A NUESTRO EQUIPO!
+DISPONIBILIDAD DE TIEMPO
+Horario
+Lunes a Sábado de
+8:30 am a 6:30 pm
+Sueldo mensual: $12,000 neto
+Excelente ambiente laboral
+Requisitos y Responsabilidades del puesto
+- Atención y cuidado de perros
+- Limpieza de perreras
+- Paseo de perros
+Si te interesa, postúlate por este medio.</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Aprendiz de Entrenamiento Canino</v>
+      </c>
+      <c r="B24" t="str">
+        <v>UNIDAD DE SERVICIOS CO...</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Monterrey,, N.L.</v>
+      </c>
+      <c r="D24" t="str">
+        <v>$10,946 Mensual</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Entrenamiento canino</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L24" t="str" xml:space="preserve">
+        <v xml:space="preserve">PETCO México está buscando un/a apasionado/a por las mascotas para unirse a nuestro equipo como Aprendiz de Entrenador Canino (NOTA: EXPERIENCIA NO NECESARÍA).
+Si amas a los animales, disfrutas del contacto directo con ellos y te entusiasma la idea de desarrollarte como entrenador canino profesional, ¡esta es tu oportunidad! En PETCO, te brindamos la capacitación y el apoyo que necesitas para crecer y hacer una diferencia en la vida de las mascotas y sus dueños.
+Ofrecemos:
+Sueldo base mensual: $8,875.80
+Bono de productividad mensual: $2,071.02 (adicional al sueldo base)
+Aumentos salariales: Conforme avances en las diferentes categorías de entrenamiento.
+Prestaciones de Ley y Superiores: Aguinaldo, vacaciones, prima vacacional, seguro social y beneficios adicionales.
+Descuentos en PETCO: ¡Disfruta de descuentos del 20% al 40% en nuestros productos y servicios!
+Capacitación Continua: Accede a cursos y talleres para tu desarrollo profesional.
+Curso de Entrenador ¡GRATUITO!: Te formamos integralmente para convertirte en un entrenador canino certificado.
+Plan de Crecimiento: Oportunidades reales de desarrollo dentro de la empresa.
+Responsabilidades:
+Apoyo en la recepción de mascotas para servicios de entrenamiento.
+Brindar asesoría básica a los clientes sobre servicios de adiestramiento para sus mascotas.
+Apoyo general en la limpieza y organización del área de trabajo.
+Participación activa en el programa de capacitación para entrenador canino.
+Desarrollo de habilidades para futuras sesiones de entrenamiento bajo supervisión.
+Requisitos:
+¡Amor incondicional y trato directo con mascotas!
+Experiencia básica en el cuidado o entrenamiento de mascotas (se considera la experiencia con tus propios perros).
+Actitud de servicio y excelente disposición para aprender.
+Habilidades de comunicación básica.
+Responsabilidad y compromiso.
+Disponibilidad de horario (considerar horarios rotativos o de fin de semana según la operación de la tienda).
+¡Únete a la familia PETCO y haz carrera haciendo lo que amas!</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Vendedor HPM</v>
+      </c>
+      <c r="B25" t="str">
+        <v>UAC</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Juárez,, Chih.</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Sueldo no mostrado por la empresa</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Administrativo</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Auxiliar administrativo</v>
+      </c>
+      <c r="H25" t="str">
         <v>Universitario sin titulo</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I25" t="str">
         <v>Permanente</v>
       </c>
-      <c r="J4" t="str">
-        <v>Tiempo completo</v>
-      </c>
-      <c r="K4" t="str">
+      <c r="J25" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K25" t="str">
         <v>Presencial</v>
       </c>
-      <c r="L4" t="str" xml:space="preserve">
-        <v xml:space="preserve">TERAPEUTA ESPECIALIZADA EN TEA Y TDAH
-Fundación Valentina – Benito Juárez, Ciudad de México, Anaxágoras 25, Col. Piedad Narvarte, Alcaldía Benito Juárez, CDMX.
-Horario: Lunes a viernes de 8:30 a 18:00 hrs
-Sueldo: $9,000 a $12,000 mensuales (según experiencia)
-OBJETIVO DEL PUESTO
-Brindar atención terapéutica especializada a niños, niñas y adolescentes con diagnóstico de Trastorno del Espectro Autista (TEA) y/o Trastorno por Déficit de Atención e Hiperactividad (TDAH), mediante un enfoque individualizado que favorezca su desarrollo integral, habilidades sociales, comunicación, autorregulación y autonomía.
-PERFIL REQUERIDO
-Sexo: Femenino
-Edad: 25 a 30 años
-Escolaridad: Licenciatura en Psicología (PRINCIPALEMENTE PSICOLOGIA CLINICA), Psicopedagogía, Pedagogía o Terapia Ocupacional, con especialidad o formación en educación especial, neurodiversidad o neurociencias (Indispensable contar con título y cédula profesional o en proceso).
-Formación adicional deseable: Diplomados o certificaciones en ABA, PECS, TEACCH, Denver o afines.
-Experiencia mínima: 1 año comprobable trabajando con población TEA y/o TDAH.
-Residencia: No vivir a más de una hora de distancia del centro.
-HABILIDADES CLAVES
-Saber realizar diagnósticos y valoraciones en TEA y TDAH. ?
-Diseño e implementación de planes terapéuticos individuales.
-Elaboración de bitácoras y reportes terapéuticos.
-Trabajo colaborativo y orientación a familias.
-Alta empatía, responsabilidad, comunicación y observación clínica.
-FUNCIONES PRINCIPALES
-Realización de valoraciones y diagnósticos clínico-funcionales en TEA y TDAH.
-Diseño y aplicación de intervenciones personalizadas.
-Elaboración y entrega mensual de planeaciones terapéuticas.
-Registro y envío de bitácoras mensuales.
-Aplicación de técnicas conductuales y metodologías estructuradas.
-Trabajo coordinado con equipo multidisciplinario.
-Asesoramiento continuo a padres de familia.
-SOLO POSTULARSE SI CUMPLES CON LOS REQUISITOS DEL PERFIL, SOLO PSICOLOGAS CLINICAS ESPECIALIZADAS EN TEA Y TDAH, NO LABORALES</v>
+      <c r="L25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vacante: Vendedor HPM
+Requisitos del puesto
+Educación: Licenciatura o carrera técnica. Título no indispensable.
+Habilidades: Conocimientos medios de Office y herramientas en línea, saber manejar automóvil estándar y conocimientos en productos veterinarios deseable.
+Experiencia: Previa en ventas en general, preferiblemente en el sector veterinario enfocado en pequeñas especies (perros y gatos).
+Conocimiento del mercado de Cd. Juarez.
+Disponibilidad para viajar.
+Disponibilidad de horario.
+Residir en Ciudad Juarez, Chih.
+Honestidad, responsabilidad y actitud de servicio.
+Responsabilidades del puesto
+Realizar prospección y seguimiento de clientes potenciales para generar ventas.
+Brindar asesoramiento y recomendaciones a los clientes sobre los productos veterinarios de la empresa.
+Participar en ferias y eventos relacionados con el sector veterinario para promover los productos y servicios.
+Realizar visitas a Clínicas y mostradores especializados para fortalecer las relaciones comerciales y asegurar la satisfacción del cliente.
+Elaborar informes de ventas y mantener actualizada la base de datos de clientes.
+Alcanzar objetivos de venta establecidos por la empresa.
+Seguimiento a la entrega y Cobranza de sus clientes
+Prestaciones y beneficios adicionales
+Salario mensual competitivo de $13,000 a $15,000 pesos.
+Oportunidades de crecimiento y desarrollo profesional.
+Capacitación continua en productos y técnicas de ventas.
+Prestaciones de ley y seguro de gastos médicos mayores.
+Comisión por venta cobrada.
+Herramientas de trabajo como automóvil y teléfono celular.
+Excelente ambiente de trabajo en un equipo dinámico y comprometido.
+Tipo de puesto: Tiempo completo
+Sueldo: $13,000.00 - $15,000.00 al mes
+Tipo de jornada:
+Incluye fines de semana
+Turno de 8 horas
+Experiencia:
+Ventas: 3 años (Obligatorio)
+Terminología veterinaria: 2 años (Deseable)
+Empleo presencial</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Bañador canino Vasconcelos o Serena , salario, bono, prestac</v>
+      </c>
+      <c r="B26" t="str">
+        <v>UNIDAD DE SERVICIOS CO...</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Monterrey,, N.L.</v>
+      </c>
+      <c r="D26" t="str">
+        <v>$8,875 - $10,000 Mensual</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Secundaria</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L26" t="str" xml:space="preserve">
+        <v xml:space="preserve">PETCO MÉXICO
+Mascotas más Saludables, Personas más Felices, empresa dedicada al cuidado y bienestar de las mascotas
+Bañador canino sin experiencia, Vasconcelos o serena
+Objetivo del puesto:
+Cuidado y bienestar de los animales que son tratados en la estética canina.
+Requisitos:
+· Baño de mascotas propias, nosotros te capacitamos
+· Conocimientos básicos protocolos de seguridad e higiene
+· Conocimiento básico en comportamiento canino
+· Generales en razas de perros, razas básico
+· Manejo de mascotas o mascotas propias
+· Generales en bienestar animal
+· Herramientas de trabajo acordes a la actividad
+·Disponibilidad para laborar de lunes a domingo descanso entre semana
+·Poder rolar turnos cada 15 días de 8 a 5 de 9 a 6 de 10 a 7 de 11 a 8 de 12 a 9
+Funciones:
+· Cuidado, la atención, seguridad y bienestar de los animales durante su estancia en la estética animal
+· Uso y manejo todas las instalaciones, sistemas, equipos, herramientas y servicios necesarios para la operación diaria de la estética animal
+· Inspección visual de manera minuciosa sobre el estado de salud general del perro
+· Brindar información necesaria sobre costos de los servicios de estética, promociones, términos, condiciones y políticas generales
+· Venta complementaria de productos, mercancías y artículos de la tienda
+· Ejecutar los protocolos establecidos de sanidad, higiene y limpieza de las instalaciones, sistemas, equipos y herramientas
+· Ejecutar el protocolo establecido para el abasto y resurtido de los insumos necesarios en el área de baño de los animales
+Habilidades:
+· Gusto por los perritos
+· Actitud de servicio al cliente
+· Manejo del estrés
+· Empatía
+· Ordenado
+· Paciente
+· Disciplinado
+· Carismático
+Beneficios:
+· Contratación directa por la empresa
+· Esquema 100% nominal
+· Seguro
+· Aguinaldo
+· Vacaciones
+· Caja de ahorro
+· Programa de útiles escolares
+· Programa de lentes
+· Oportunidad de desarrollo
+· Oportunidad de crecimiento laboral
+· Estabilidad laboral</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Entrenadora Física Personal</v>
+      </c>
+      <c r="B27" t="str">
+        <v>No se muestra la empresa</v>
+      </c>
+      <c r="C27" t="str">
+        <v>CDMX</v>
+      </c>
+      <c r="D27" t="str">
+        <v>$10,000 - $12,000 Mensual</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Deportes - Salud - Belleza</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Entrenador personal</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Universitario sin titulo</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Medio tiempo</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L27" t="str" xml:space="preserve">
+        <v xml:space="preserve">*Sobre el Cliente:*
+- Hombre de 43 años, actualmente en proceso de recuperación tras dos cirugías (rodilla y hombro).
+- Lleva 10 años sin entrenamiento físico, por lo que requiere comenzar con rutinas suaves y progresivas enfocadas en rehabilitación y fortalecimiento general.
+*Requisitos:*
+- Sexo femenino de preferencia
+- Disponibilidad para trabajo presencial de lunes a viernes en Lomas de Chapultepec, CDMX, por 6 horas diarias.
+- Flexibilidad de horario: la prioridad es acompañar y asistir en las rutinas de entrenamiento del cliente, y en tiempos libres puedes entrenar por tu cuenta.
+*Responsabilidades:*
+- Realizar dos sesiones de ejercicio personalizadas al día, de 1 hora cada una, con descanso entre ambas.
+- Apoyar en el proceso de rehabilitación física, adaptando los ejercicios al estado físico actual del cliente y asegurando una progresión segura.
+- Enfocar el entrenamiento en calistenia y escalada, conforme el cliente vaya ganando fuerza y movilidad.
+- Supervisar y motivar durante el entrenamiento, asegurando la correcta ejecución de los ejercicios y evitando cualquier riesgo de lesión.
+- Aprovechar el gimnasio completamente equipado, incluyendo área de travesía para escalar.
+*Viajes:*
+- Disponibilidad para viajar a Tequesquitengo por periodos de hasta una semana o más. En caso de estancias prolongadas, cubro el costo del transporte en autobús.
+- Durante los viajes, compartirás recámara con dos mujeres de apoyo que acompañan al cliente habitualmente.
+- En Tequesquitengo, las actividades incluyen entrenamiento en alberca, uso de barras paralelas y caminatas con perros junto al río.
+*Perfil deseado:*
+- Experiencia comprobable en entrenamiento físico, rehabilitación y/o entrenamiento funcional.
+- Conocimientos en calistenia y escalada (deseable).
+- Actitud paciente, empática y motivadora.
+- Compromiso, responsabilidad y discreción.
+---
+## Ofrecemos
+- *Ambiente de trabajo seguro, equipado y positivo:* Espacios cómodos, con todo lo necesario para entrenar y desarrollarte profesionalmente, en un entorno respetuoso y motivador.
+- *Oportunidad de crecimiento económico:* Remuneración competitiva, con posibilidad de incrementar ingresos de acuerdo con tu desempeño, compromiso y profesionalismo.
+- *Apoyo integral durante viajes:* Cubrimos transporte, alimentos y hospedaje en estancias fuera de la ciudad, asegurando tu comodidad y bienestar en todo momento.
+---
+Si cumples con el perfil y te interesa formar parte de este proyecto de recuperación y acondicionamiento físico, ¡esperamos tu postulación!</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>Gerencia Seguridad Alimentaria</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Kwan Treats</v>
+      </c>
+      <c r="C28" t="str">
+        <v>El Marqués,, Qro.</v>
+      </c>
+      <c r="D28" t="str">
+        <v>$25,000 - $30,000 Mensual</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Ingeniería</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Ingeniería en alimentos</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Híbrido</v>
+      </c>
+      <c r="L28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Descripción del Puesto:
+Es responsable de establecer, planear, organizar, dirigir, controlar y mejorar los sistemas de seguridad alimentaria y calidad de la empresa siendo la base de los procesos productivos para proveer alimentos seguros, sanos, inocuos y con una calidad constante cumpliendo con la legislación y normativa nacional e internacional, así como los requerimientos y expectativas de los clientes.
+Funciones y Actividades Principales:
+Implementar, informar y vigilar el cumplimiento del Sistema de Gestión de Inocuidad de los Alimentos (SGIA) basado en el código SQF y los sistemas de calidad relacionados.
+Verificar el cumplimiento de la empresa, productos y procesos respecto a las normas, regulaciones, legislación nacionales e internacionales y requisitos de clientes aplicables a la seguridad alimentaria.
+Coordinar, dirigir y controlar las inspecciones tanto de clientes, proveedores, agencias regulatorias o cualquier otra dependencia incluyendo las instituciones autorizadas para certificaciones.
+Verificar y aprobar la información relevante de proveedores (materias primas, materiales de empaque, químicos e insumos) para asegurar la inocuidad y calidad de los productos elaborados.
+Coordinar la verificación de la limpieza, orden, seguridad e higiene del personal operativo, instalaciones, materiales y equipos de la planta.
+Coordinar la realización y verificación de análisis físico-químicos, sensoriales,  microbiológicos, vida de anaquel y otros requeridos.
+Aprobar, elaborar, revisar e implementar los programas, políticas y procedimientos del área.
+Análisis proactivo y oportuno de información del área para la toma de decisiones.
+Resolución de conflictos y toma de decisiones dentro de su área.
+Coordinar los programas de capacitación continua para el personal técnico y operativo en diversos temas relacionados con el área.
+PERFIL
+Requisitos:
+Escolaridad: Ing. en Alimentos o carrera afín (Titulado).
+Experiencia: Más de 4 años en puesto similar en plantas de alimentos.
+Inglés técnico y de negocios intermedio-avanzado (leído y escrito indispensable; deseable comunicación verbal fluida).
+Conocimientos
+Sistemas de inocuidad y certificaciones en alimentos: BPM, HACCP, Controles preventivos, SQF.
+Normativas y regulaciones nacionales e internacionales (alimentos deshidratados para perros).
+Conocimiento en normas de seguridad e higiene y salud ocupacional.
+Auditorías internas, a proveedores, de clientes y agencias regulatorias.
+Microbiología de alimentos.
+Análisis físico-químicos, nutrimentales, vida de anaquel en alimentos.
+Conocimientos técnicos en procesos, ingredientes y empaques para alimentos.
+Conocimiento en proyectos de mejora continua.
+Manejo de herramientas estadísticas.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L28"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/web-interface/resultados.xlsx
+++ b/web-interface/resultados.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,28 +442,28 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Monitora en inclusión educativa (maestro sombra)</v>
+        <v>Bañador de perritos</v>
       </c>
       <c r="B2" t="str">
-        <v>CC INTEGRACION LABORAL</v>
+        <v>UNIDAD DE SERVICIOS CO...</v>
       </c>
       <c r="C2" t="str">
-        <v>CDMX</v>
+        <v>Celaya,, Gto.</v>
       </c>
       <c r="D2" t="str">
-        <v>$8,500 Mensual</v>
+        <v>$9,000 - $10,000 Mensual</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>Educación</v>
+        <v>Veterinaria - Agricultura</v>
       </c>
       <c r="G2" t="str">
-        <v>Educación especial</v>
+        <v>Estética canina</v>
       </c>
       <c r="H2" t="str">
-        <v>Universitario sin titulo</v>
+        <v>Bachillerato</v>
       </c>
       <c r="I2" t="str">
         <v>Permanente</v>
@@ -475,42 +475,51 @@
         <v>Presencial</v>
       </c>
       <c r="L2" t="str" xml:space="preserve">
-        <v xml:space="preserve">REQUISITOS:
-Nivel de estudios: Licenciatura (concluida o últimos semestres) Psicología educativa, Pedagogía, Educación especial o afines
-23 a 32 años
-Sexo indistinto
-Estado civil indistinto
-EXPERIENCIA:
-Deseable con niños con autismo, trastornos del neurodesarrollo y/o alguna discapacidad
-HABILIDADES Y COMPETENCIAS:
-Proactiva, comunicación asertiva, responsable, puntual.
-Empatía y sensibilidad emocional, paciencia, tolerancia a la frustración, vocación infantil, compromiso y responsabilidad.
-HORARIO DE TRABAJO:
-De lunes a viernes
-Interesados enviar cv a la dirección de contacto.</v>
+        <v xml:space="preserve">¡¡SÉ PARTE DE NUESTRA COMUNIDAD DE PET PARTNERS COMO BAÑADOR DE PERRITOS EN PETCO CELAYA.
+ESTAMOS CONTRATANDO BAÑADOR CANINO - NO NECESITAS EXPERIENCIA
+Ofrecemos:
+Sueldo base mensual de $8,875.00 + Bono $1,183
+Aumentos Salariales conforme subas de Categoría
+Prestaciones de Ley y Superiores
+Descuentos en PETCO del 20 al 40%
+Capacitación continua / Curso de estética canina ¡GRATUITO!
+Plan de crecimiento, te capacitamos para ser ESTILISTA CANINO PROFESONAL
+Requisitos:
+Amor y trato directo con mascotas
+Experiencia en el baño de mascotas (puedes ser con tus propios perritos)
+Disponibilidad de horario (NO ESTUDIANTES, SE ROLAN TURNOS DE 8 HORAS).
+Gran actitud de servicio, organizado, trabajo en equipo.
+Constancia de Situación Fiscal Actualizada
+Funciones:
+Bañado de perros y gatos.
+Apoyo con recepción de mascotas
+Asesoría al cliente en cuanto al mejor corte para su mascota.
+Apoyo de limpieza en el área
+Turnos rolados lunes a domingo, un descanso entre semana
+Horarios: 8am a 5pm, 10am a 7pm, 12:00 a 9pm</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>Closer SaaS B2B Startup Tecnologica</v>
+        <v>Ejecutivo marketing</v>
       </c>
       <c r="B3" t="str">
-        <v>No se muestra la empresa</v>
+        <v>Los Rones</v>
       </c>
       <c r="C3" t="str">
-        <v>Torreón,, Coah.</v>
+        <v>Veracruz,, Ver.</v>
       </c>
       <c r="D3" t="str">
-        <v>$20,000 - $25,000 Mensual</v>
+        <v>$10,000 - $12,000 Mensual</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>Ventas</v>
+        <v>Mercadotecnia - Publicidad - Relaciones Públicas</v>
       </c>
       <c r="G3" t="str">
-        <v>Comercial</v>
+        <v>Mercadotecnia</v>
       </c>
       <c r="H3" t="str">
         <v>Universitario titulado</v>
@@ -525,86 +534,48 @@
         <v>Híbrido</v>
       </c>
       <c r="L3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Empresa:
-SuperLeads — Plataforma SaaS que impulsa las admisiones y la matrícula de instituciones educativas en Latinoamérica mediante tecnología inteligente y procesos comerciales impecables.
-Objetivo del rol
-Ser la primera línea de crecimiento de SuperLeads: realizar prospección outbound diaria (llamadas, correos y LinkedIn) a nuestro *Ideal Customer Profile* (ICP) para generar al menos 30 conexiones efectivas por día y agendar citas calificadas para nuestro equipo de Account Executives.
-Responsabilidades clave
-Ejecutar cadencias multicanal (teléfono, email, LinkedIn) y mantener registro de todo en SuperLeads &lt;- Usas el mejor CRM para vender el mejor CRM educativo, tu capacitación de explicación esta intimamente ligada a tu uso del CRM para vender!
-Detectar necesidades, calificar leads con criterio Bajo, Medio, Alto y concertar reuniones.
-Alcanzar meta semanal de citas asistidas y tasa de respuesta mínima del 15 %.
-Colaborar con Marketing para nutrir leads y con Closers para retroalimentación de calidad.
-Participar en role-plays, coaching, Talleres, Congresos y workshops internos para elevar tu pitch.
-Representar la cultura SuperLeads: presencia real, comunicación consciente y ritmo sostenible.
-Compensación
-Sueldo base: $12,000 MXN brutos/mes
-De $500 MXN a $5,000 MXN por cada cita calificada que se lleve a cabo.
-Ingreso estimado: $40,000 MXN/mes (base + comisiones). &lt;- Buscamos solo gente responsable
-Prestaciones de ley, laptop y línea telefónica corporativa.
-Requisitos
-5 + año en prospección o telemarketing B2B (ventas SaaS o educación, deseable).
-Dominio de llamadas en frío (que no te de miedo ni flojera), redacción de correos y social-selling en LinkedIn, que te guste escribir.
-Conocimiento básico de CRM (HubSpot o similar) y hábito de documentación rigurosa.
-Actitud hunter (eres un cazador y no paras hasta lograr la cita), resiliencia ante la objeción y enfoque a métricas diarias.
-Excelente ortografía y dicción; gusto por aprender y aportar ideas.
-Disponibilidad tiempo completo en oficina de Torreón.
-Lo que ofrecemos
-Plan de carrera claro a Closer en 12-18 meses según performance.
-Formación continua en metodologías de venta consultiva (SPIN, MEDDICC, Challenger).
-Ambiente de alto desempeño con calidez humana: celebramos logros y cuidamos el bienestar.
-Propósito de impacto: ayudar a colegios y universidades a transformar sus admisiones.
----
-¿Te apasiona la prospección, el contacto humano y el mundo EdTech?
-¡Únete a SuperLeads y conviértete en la chispa que encienda el crecimiento educativo en LATAM!
-Tipo de puesto: Tiempo completo
-Sueldo: A partir de $12,000 MXN al mes &lt;- Esto es el inicial, si no ganas 3 veces más esto al menos, te descontraríamos por que nos hacemos daño, nos gusta que las personas con nosotros gane bien y esto lo demuestra.
-Beneficios:
-Aumentos salariales ritmo Startup
-Días de paternidad superiores a los de la ley
-Laptop y celular de la empresa
-&gt;100 Ventas, Carro de la empresa
-Pago complementario:
-Bono anual &gt;52 ventas en el año
-Bono de productividad Pago por Cita asistida
-Tipo de jornada:
-55 horas semanales mínimo
-Como tu las acomodes
-Pregunta(s) de postulación: (Es importante que tengamos estas respuestas.
-Describe en 2-3 líneas tu logro laboral más sobresaliente
-Si te contratamos, ¿cómo serían tus primeros 100 días en SuperLeads?
-¿Tu puesto como impacta directamente los ingresos de la empresa, exactamente?
-Lugar de trabajo: Empleo presencial o Híbrido.
-Fecha de inicio prevista: 01/08/2025
-Solo aplica si crees que eres Player A, osea un Mini-Ceo, entrepeneur, Motivado siempre, Con deficit de atención, Autismo.
-Nos vemos pronto ó no.
-Ing. Ricardo López Reyero
-Founder Comercial SuperLeads</v>
+        <v xml:space="preserve">Vacante: Marketing y Redes Sociales para Rones
+¿Te gustan los perritos y eres bueno creando contenido? ???
+En Rones buscamos a alguien que se una a nuestro equipo para:
+? Realizar ediciones de fotos y videos
+? Diseñar memes y publicaciones creativas
+? Manejar redes sociales con estilo fresco y amigable
+? Apoyar con ideas de marketing para promociones
+?? Modalidad: Presencial
+? Horario: Tiempo completo
+?? Ubicación: Veracruz
+?? Requisitos:
+• Creatividad y proactividad
+• Conocimiento en edición de imágenes y videos (Canva, CapCut o similar)
+• Gusto por los perros y por generar contenido dinámico
+• Experiencia manejando redes sociales (Facebook, Instagram, TikTok)
+Si te interesa, mándanos un mensaje con tu CV y portafolio de publicaciones o memes que hayas hecho. ¡Queremos conocerte!</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>TERAPEUTA ESPECIALIZADA EN TEA Y TDAH</v>
+        <v>Encargado de sucursal para pensión de mascotas</v>
       </c>
       <c r="B4" t="str">
-        <v>No se muestra la empresa</v>
+        <v>La empresa es confidencial o no se encuentra disponible</v>
       </c>
       <c r="C4" t="str">
-        <v>CDMX</v>
+        <v>Álvaro Obregón,, CDMX</v>
       </c>
       <c r="D4" t="str">
-        <v>$9,000 - $12,000 Mensual</v>
+        <v>$15,000 - $18,000 Mensual</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>Ciencias sociales - Humanidades</v>
+        <v>Administrativo</v>
       </c>
       <c r="G4" t="str">
-        <v>Psicología</v>
+        <v>Administración de oficina</v>
       </c>
       <c r="H4" t="str">
-        <v>Universitario sin titulo</v>
+        <v>Bachillerato</v>
       </c>
       <c r="I4" t="str">
         <v>Permanente</v>
@@ -616,39 +587,1674 @@
         <v>Presencial</v>
       </c>
       <c r="L4" t="str" xml:space="preserve">
-        <v xml:space="preserve">TERAPEUTA ESPECIALIZADA EN TEA Y TDAH
-Fundación Valentina – Benito Juárez, Ciudad de México, Anaxágoras 25, Col. Piedad Narvarte, Alcaldía Benito Juárez, CDMX.
-Horario: Lunes a viernes de 8:30 a 18:00 hrs
-Sueldo: $9,000 a $12,000 mensuales (según experiencia)
-OBJETIVO DEL PUESTO
-Brindar atención terapéutica especializada a niños, niñas y adolescentes con diagnóstico de Trastorno del Espectro Autista (TEA) y/o Trastorno por Déficit de Atención e Hiperactividad (TDAH), mediante un enfoque individualizado que favorezca su desarrollo integral, habilidades sociales, comunicación, autorregulación y autonomía.
-PERFIL REQUERIDO
-Sexo: Femenino
-Edad: 25 a 30 años
-Escolaridad: Licenciatura en Psicología (PRINCIPALEMENTE PSICOLOGIA CLINICA), Psicopedagogía, Pedagogía o Terapia Ocupacional, con especialidad o formación en educación especial, neurodiversidad o neurociencias (Indispensable contar con título y cédula profesional o en proceso).
-Formación adicional deseable: Diplomados o certificaciones en ABA, PECS, TEACCH, Denver o afines.
-Experiencia mínima: 1 año comprobable trabajando con población TEA y/o TDAH.
-Residencia: No vivir a más de una hora de distancia del centro.
-HABILIDADES CLAVES
-Saber realizar diagnósticos y valoraciones en TEA y TDAH. ?
-Diseño e implementación de planes terapéuticos individuales.
-Elaboración de bitácoras y reportes terapéuticos.
-Trabajo colaborativo y orientación a familias.
-Alta empatía, responsabilidad, comunicación y observación clínica.
-FUNCIONES PRINCIPALES
-Realización de valoraciones y diagnósticos clínico-funcionales en TEA y TDAH.
-Diseño y aplicación de intervenciones personalizadas.
-Elaboración y entrega mensual de planeaciones terapéuticas.
-Registro y envío de bitácoras mensuales.
-Aplicación de técnicas conductuales y metodologías estructuradas.
-Trabajo coordinado con equipo multidisciplinario.
-Asesoramiento continuo a padres de familia.
-SOLO POSTULARSE SI CUMPLES CON LOS REQUISITOS DEL PERFIL, SOLO PSICOLOGAS CLINICAS ESPECIALIZADAS EN TEA Y TDAH, NO LABORALES</v>
+        <v xml:space="preserve">Acerca de la empresa
+Somos una empresa líder en el cuidado y bienestar de mascotas, comprometida con la calidad y la satisfacción de sus clientes. Trabajar con nosotros significa formar parte de un equipo dedicado y apasionado por brindar los mejores servicios a las mascotas caninas y sus dueños.
+Ubicación: Álvaro Obregón, Ciudad de México.
+Requisitos del puesto
+Edad de 25 a 37 años
+Bachillerato completo.
+Conocimiento avanzado de razas de perros.
+Experiencia en veterinaria de primer contacto.
+Indispensable que tenga experiencia en gestiones relacionadas con mascotas.
+Responsabilidades del puesto
+Garantizar la calidad de los servicios de guardería, pensión y estética canina.
+Mantener la limpieza y orden del negocio.
+Supervisar al equipo asignado.
+Registrar, controlar y reportar los servicios diariamente.
+Recepcionar y entregar a las mascotas.
+Atraer y fidelizar a clientes nuevos y existentes.
+Prestaciones y beneficios adicionales
+Sueldo mensual competitivo de 15000 a 18000 más comisiones.
+Oportunidades de crecimiento y desarrollo profesional.
+Ambiente laboral colaborativo y motivador.
+Horario de trabajo: Lunes a Sábado de 09:00 a 18:00 horas.</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>Bañador de perritos</v>
+      </c>
+      <c r="B5" t="str">
+        <v>UNIDAD DE SERVICIOS CO...</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Coyoacán,, CDMX</v>
+      </c>
+      <c r="D5" t="str">
+        <v>$9,000 - $10,000 Mensual</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L5" t="str" xml:space="preserve">
+        <v xml:space="preserve">¡¡SÉ PARTE DE NUESTRA COMUNIDAD DE PET PARTNERS COMO BAÑADOR DE PERRITOS EN PETCO PUNTO MAQ.
+ESTAMOS CONTRATANDO BAÑADOR CANINO - NO NECESITAS EXPERIENCIA
+UBICACION: COYOACAN, CDMX.
+Ofrecemos:
+Sueldo base mensual de $8,875.00 + Bono $1,183
+Aumentos Salariales conforme subas de Categoría
+Prestaciones de Ley y Superiores
+Descuentos en PETCO del 20 al 40%
+Capacitación continua / Curso de estética canina ¡GRATUITO!
+Plan de crecimiento, te capacitamos para ser ESTILISTA CANINO PROFESONAL
+Requisitos:
+Amor y trato directo con mascotas
+Experiencia en el baño de mascotas (puedes ser con tus propios perritos)
+Disponibilidad de horario (NO ESTUDIANTES, SE ROLAN TURNOS DE 8 HORAS).
+Gran actitud de servicio, organizado, trabajo en equipo.
+Constancia de Situación Fiscal Actualizada
+Funciones:
+Bañado de perros y gatos.
+Apoyo con recepción de mascotas
+Asesoría al cliente en cuanto al mejor corte para su mascota.
+Apoyo de limpieza en el área
+Turnos rolados lunes a domingo, un descanso entre semana
+Horarios: 8am a 5pm, 10am a 7pm, 12:00 a 9pm</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="B6" t="str">
+        <v>TocToc VET</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Zapopan,, Jal.</v>
+      </c>
+      <c r="D6" t="str">
+        <v>$2,300 - $2,800 Mensual</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Universitario sin titulo</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Medio tiempo</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Híbrido</v>
+      </c>
+      <c r="L6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Acerca de la empresa
+'TocToc VET' es una clínica veterinaria líder en el cuidado de mascotas en Zapopan, Jalisco. Con más de 3 años de experiencia, nos enfocamos en brindar servicios de alta calidad y atención individualizada a nuestros clientes y sus mascotas. En TocToc VET, valoramos el bienestar de nuestros empleados y fomentamos un ambiente de trabajo colaborativo y de crecimiento profesional. Ubicación: Solares, Zapopan, Jalisco.
+Requisitos:
+2 años de experiencia comprobable en clínica y cirugía de animales de compañía
+Excelente trato con el cliente
+Empatía con los tutores
+Amor por las mascotas
+Proactividad y trabajo en equipo.
+Responsabilidades del puesto:
+Brindar atención médica general a perros y gatos (consultas, revisiones, urgencias).
+Aplicar protocolos de medicina preventiva: vacunación, desparasitación y orientación a tutores.
+Interpretar análisis clínicos y pruebas diagnósticas.
+Elaborar historias clínicas digitales con precisión.
+Promover prácticas "fear-free" durante el manejo del paciente.
+Comunicar diagnósticos y planes de tratamiento de forma clara, empática y profesional.
+Participar en capacitaciones internas y contribuir al trabajo en equipo.
+Ofrecemos:
+Sueldo competitivo
+Excelente ambiente de trabajo con enfoque ético y profesional.
+Oportunidad de crecimiento
+Instalaciones equipadas
+Descuentos en servicios y productos veterinarios.
+Si te apasiona la medicina veterinaria con propósito y quieres formar parte de un equipo comprometido con el bienestar animal, ¡te estamos buscando!
+---TocToc VET – Donde tratamos a tus mascotas como de la familia.
+Tipo de puesto: Medio tiempo
+Sueldo: A partir de $2,500.00 a la semana
+Horas previstas: 36 por semana
+Beneficios:
+Descuentos y precios preferenciales
+Estacionamiento de la empresa
+Opción a contrato indefinido
+Vacaciones adicionales o permisos con goce de sueldo</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>Bañado canino sin experiencia petco Hipódromo $8,875+bono</v>
+      </c>
+      <c r="B7" t="str">
+        <v>UNIDAD DE SERVICIOS CO...</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Naucalpan de Juárez,, Edo. Méx.​</v>
+      </c>
+      <c r="D7" t="str">
+        <v>$8,875 - $10,059 Mensual</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Secundaria</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L7" t="str" xml:space="preserve">
+        <v xml:space="preserve">En PETCO nos encanta la diversidad, el crecimiento profesional y sobre todo la gente, por ello ¡estamos en bu´squeda de nuestros pro´ximos Pet Partners como:
+"BAÑADORES DE PERRITOS"
+FUNCIONES:
+Ban~ador de perros
+Apoyo a los departamentos dentro de la tienda
+Mantenimiento de equipo de trabajo y apertura y cierre de tienda
+OFRECEMOS:
+Sueldo aproximado de $8,875 aprox ma´s bono $1183.44.
+Incremento de salario a los 2 meses
+Prestaciones de Ley y Superiores
+¡TE ENSEN~AMOS ESTE´TICA CANINA! (CURSO PROFESIONAL)
+ADICIONALES:
+Descuentos con PETCO del 20% al 40%
+Descuentos con Office Depot, Radio Shack, Toks.
+Apoyo de O´ptica, lentes gratuitos para ti y tu familia
+Apoyo de u´tiles escolares
+Caja de ahorro, prestamos de no´mina y prestamos de caja.
+Capacitacio´n y crecimiento
+Uniformes
+No´mina al 100% declarada
+¿QUE NECESITAS?
+Amor a las mascotas
+Tener amor por las mascotas e intere´s por la este´tica canina
+¿Experiencia? ... ¡Puede ser con tus propias mascotas!
+¡Importante! disponibilidad de horario, se labora de lunes a domingo con descanso entre semana y se rolan 2 turnos
+)
+PETCO Salud + Bienestar para tus mascotas
+Unete a nuestros Petpartners!</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>Enfermero - Aplicador de vacunas Veterinario</v>
+      </c>
+      <c r="B8" t="str">
+        <v>ViVien Vacunación a Do...</v>
+      </c>
+      <c r="C8" t="str">
+        <v>CDMX</v>
+      </c>
+      <c r="D8" t="str">
+        <v>$14,000 - $16,000 Mensual</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Híbrido</v>
+      </c>
+      <c r="L8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Propósito del puesto
+Brindar atención médica veterinaria profesional en la aplicación de vacunas a perros y gatos, ya sea en domicilio o en campañas organizadas por VIVIEN. Garantizar la seguridad, calidad y bienestar animal durante todo el proceso. Además, ofrecer orientación médica básica a tutores mediante consultas virtuales, resolviendo dudas pre y post vacunación.
+Responsabilidades principales
+Atención en domicilio (Realizar revisión física básica previa a la vacunación, aplicar la(s) vacuna(s) de acuerdo con lineamientos médicos y cadena de frío, llenar consentimiento informado y obtener firma digital o física del tutor, registrar cita y firma de aplicación en el sistema y ofrecer recomendaciones post-vacunación al tutor)
+Campañas de vacunación (Participar en el montaje y operación de campañas masivas (parques, fraccionamientos, eventos),
+. Consultas en línea (vía WhatsApp, plataforma o videollamada) Atender dudas básicas sobre protocolos de vacunación, síntomas postvacunales o requerimientos previos.
+Actividades administrativas inherentes al puesto
+Formación requerida
+Médico Veterinario Zootecnista (MVZ) titulado o pasante con carta de pasantía vigente.
+Deseable: Diplomado o experiencia en vacunación, medicina preventiva y bienestar animal.
+Experiencia previa
+Mínimo 1 año en atención clínica o vacunación de perros y gatos.
+Deseable experiencia en atención domiciliaria o campañas comunitarias.
+Conocimientos técnicos
+Manejo de esquemas de vacunación en perros y gatos.
+Identificación de signos clínicos básicos.
+Manejo y contención segura de animales.
+Bioseguridad, higiene y cadena de frío.
+Deseable: conocimientos básicos de plataformas digitales de atención o CRM.
+Competencias
+Trato amable y empático hacia tutores y animales.
+Alta responsabilidad y profesionalismo.
+Puntualidad y manejo eficiente del tiempo.
+Resolución de problemas y toma de decisiones básicas.
+Adaptabilidad a campo y trabajo en movimiento.
+Buena presentación e higiene personal.</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>Gerente de operaciones de cadena de suministros / giro restaurantero</v>
+      </c>
+      <c r="B9" t="str">
+        <v>SEALN</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Tlalnepantla de Baz,, Edo. Méx.​</v>
+      </c>
+      <c r="D9" t="str">
+        <v>$40,000 - $50,000 Mensual</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Manufactura - Producción - Operación</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Operaciones</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Universitario sin titulo</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L9" t="str" xml:space="preserve">
+        <v xml:space="preserve">¡Forma parte de nuestro equipo en PERROS Y BURROS!
+Buscamos Gerencia de operaciones de cadena de suministros para liderar y optimizar nuestras operaciones en el sector de restaurantes y alimentos.
+Necesitas para aplicar:
+Experiencia en cadenas de suministros giro restaurantero, alimentos prerecedeos, comisariato
+Licenciatura en Ingeniería Industrial, Administración de Empresas, Logística, Comercio Internacional, Finanzas o afines.
+Lunes a viernes de 07:00 a 17:00 hrs y sabado de 07:00 a 12:00 hrs
+Tlalnepantla de Baz, frente plaza Fashion Mall
+Compensación:
+Sueldo libre mensual $40,000 mil
+Bono mensual $20,000 mil
+Prestaciones de ley
+Responsabilidades clave:
+Gestión estratégica de la cadena de suministro, con un enfoque especial en la industria de productos perecederos
+Optimización de costos, implementación de estrategias de mejora continua y sustentabilidad
+Gestión de presupuestos importantes y proyectos enfocados en la eficiencia operativa y la diversificación de proveedores
+Gestión de logística
+Colaborar con los equipos de producción para planificar y gestionar la producción de alimentos
+Planificar y coordinar la logística de recepción, almacenamiento y distribución de insumos
+Realizar análisis financieros y elaboración de estados de resultados.
+Conocimientos:
+Planificación, análisis y pronóstico de la demanda, así como de costos de producción y distribución
+Finanzas y costos
+Procesos de certificación y auditorías de calidad alimentaria
+Normativas de seguridad e higiene alimentaria (HACCP, NOM-251, ISO 22000).
+Cadena de Frio
+Producciòn, almacen, logistica y compras
+Soft skills:
+Liderazgo
+Comunicaciòn asertiva
+Toma de desiciones
+Orientaciòn a resultados
+Negociaciòn</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>Bañador canino Petco patio santa fé</v>
+      </c>
+      <c r="B10" t="str">
+        <v>UNIDAD DE SERVICIOS CO...</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Álvaro Obregón,, CDMX</v>
+      </c>
+      <c r="D10" t="str">
+        <v>$8,875 - $10,040 Mensual</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Secundaria</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L10" t="str" xml:space="preserve">
+        <v xml:space="preserve">PETCO MÉXICO
+Mascotas más Saludables, Personas más Felices
+Bañador canino,
+Requisitos:
+· Trayectoria laboral de 1 año en el medio (ideal), estéticas caninas, fijas, móviles, guarderías, hoteles o a fin.
+· Haber desempeñado el puesto durante 3 meses, o baño de mascotas propias, nosotros te capacitamos
+· Conocimientos básicos protocolos de seguridad e higiene
+· Conocimiento básico en comportamiento canino
+· Generales en razas de perros, razas
+· Manejo de mascotas o mascotas propias
+· Generales en bienestar animal
+· Herramientas de trabajo acordes a la actividad
+Funciones:
+· Cuidado, la atención, seguridad y bienestar de los animales durante su estancia en la estética animal
+· Uso y manejo todas las instalaciones, sistemas, equipos, herramientas y servicios necesarios para la operación diaria de la estética animal
+· Inspección visual de manera minuciosa sobre el estado de salud general del perro
+· Brindar información necesaria sobre costos de los servicios de estética, promociones, términos, condiciones y políticas generales
+· Venta complementaria de productos, mercancías y artículos de la tienda
+· Ejecutar los protocolos establecidos de sanidad, higiene y limpieza de las instalaciones, sistemas, equipos y herramientas
+· Ejecutar el protocolo establecido para el abasto y resurtido de los insumos necesarios en el área de baño de los animales
+Habilidades:
+· Gusto por los perritos
+· Actitud de servicio al cliente
+· Manejo del estrés
+· Empatía
+· Ordenado
+· Paciente
+· Disciplinado
+· Carismático
+Beneficios:
+Contratación directa por la empresa
+Esquema 100% nominal
+Seguro
+Aguinaldo
+Vacaciones
+Caja de ahorro
+Programa de útiles escolares
+Programa de lentes
+Oportunidad de desarrollo
+Oportunidad de crecimiento laboral
+Estabilidad laboral</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>Técnico en alimentación y cuidado de las mascotas</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Adecco</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Qro.</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Sueldo no mostrado por la empresa</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Administrativo</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Administración</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Técnico de alimentación y cuidado de las mascotas
+UBICACIÓN: QRO
+El enfoque de este rol es proporcionar cuidado diario a las mascotas en el Centro de Mascotas. El Cuidador de Mascotas es el responsable de garantizar el bienestar de los perros y gatos en el Centro de Mascotas. Responsable de todas las actividades de socialización y enriquecimiento del programa de asistencia social. Además, es el responsable de la alimentación y el riego en función del horario de los ensayos.
+Qué estamos buscando?
+Atención al detalle
+Disciplina
+Confidencialidad
+Manejo Excel, Power Point, algún software (captura de datos)
+Conocimientos básico de computación
+Convivencia y manejo de mascotas
+Entrenamientos de adiestramiento
+Lleno de bitácoras, generación de reportes
+Cuáles serán las responsabilidades principales?
+Cuida de los perros y gatos en el Centro de Mascotas.
+Ejecutar el programa de socialización (incluido el aseo), actividades para que las mascotas mantengan sus sentidos estimulados y libres de estrés para evitar cualquier impacto en el rendimiento de las pruebas.
+Ejecutar las actividades del programa de control de peso.
+Notifique a los veterinarios cuando se note un cambio en la salud y el comportamiento de cualquier mascota.
+Ejecutar la alimentación y el riego.
+Ejecutar ensayos, cumpliendo con los estándares metodológicos y documentar toda la información asegurando la confiabilidad en los resultados.
+Recogida y evaluación de la calidad de las heces.
+Asegúrese de que la infraestructura esté bien mantenida y, en caso de cualquier problema, notifique al técnico de ensayos para su corrección, asegurándose de que se resuelva.</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>Estilista canino</v>
+      </c>
+      <c r="B12" t="str">
+        <v>D'Perros</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Jiutepec,, Mor.</v>
+      </c>
+      <c r="D12" t="str">
+        <v>$10,000 - $12,000 Mensual</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Secundaria</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Híbrido</v>
+      </c>
+      <c r="L12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Acerca de la empresa
+Acerca de la empresa: D'Perros es una estética veterinaria especializada en el cuidado y bienestar de las mascotas. Buscamos brindar un servicio integral y de calidad a todos nuestros clientes. Valoramos el trabajo en equipo, la pasión por los animales y el compromiso con la excelencia en cada tarea realizada.
+Ubicación:
+Jiutepec, Morelos.
+Requisitos del puesto
+Experiencia previa en Estética canina.
+Estudios mínimos de Secundaria.
+Conocimientos en corte de raza y baños avanzados.
+Habilidad en el manejo de mascotas.
+Responsabilidades del puesto
+Realizar cortes de raza y baños avanzados de acuerdo a las especificaciones de los clientes.
+Brindar un trato amable y profesional a las mascotas durante el proceso de estilismo.
+Mantener la limpieza y orden en el área de trabajo.
+Seguir las normas de higiene y seguridad establecidas por la empresa.
+Prestaciones y beneficios adicionales:
+- Sueldo competitivo basado en tus habilidades.
+- Oportunidades de crecimiento y desarrollo profesional.
+- Ambiente de trabajo agradable y dinámico.</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>MEDICO VETERINARIO ZOOTECNISTA</v>
+      </c>
+      <c r="B13" t="str">
+        <v>La empresa es confidencial o no se encuentra disponible</v>
+      </c>
+      <c r="C13" t="str">
+        <v>CDMX</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Sueldo no mostrado por la empresa</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Médico Veterinario Titulado
+Enfocado a pequeñas especies ( perros y gatos ).
+Hombre o Mujer (25 a 45 años)
+Con cedula profesional de MVZ.
+Buena presentación.
+Excelente atención y trato al cliente.
+Indispensable sentido de la responsabilidad.
+Capacidad de trabajo en equipo.
+Disponibilidad para realizar turnos mixtos (diurnos/nocturnos).
+Capacidades y funciones:
+Consulta médica y preventiva a perros y gatos.
+Redacción de receta médica y calculo adecuado de dosis.
+Manejo de equipo e interpretación radiológica / ultrasonido.
+Manejo de equipo de laboratorio y entendimiento de resultados.
+Manejo y capacidad resolutiva de casos clínicos en perros y gatos.
+Capacidad de procedimientos quirúrgicos básicos de tejidos blandos.
+Manejo de pacientes en hospitalización, capacidad de canalizar, medicar, tomar muestras de sangre y de orina.</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>350 - Especialista en Medicina y Cirugía de Perros y Gatos</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Universidad Autónoma d...</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Cancún Centro,, Benito Juárez,, Q. Roo</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Sueldo no mostrado por la empresa</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Te invitamos a participar en la vacante de Empleo como Especialista en Medicina y Cirugía de Perros y Gatos en la empresa DogTor Cancun.
+Licenciaturas:
+Medicina Veterinaria y Zootecnia
+Horario:
+Lunes a viernes de 11:00 am a 19:00 pm y sábados de 09:00 am a 17:00 pm?
+Requisitos:
+• Consulta de medicina interna.
+• Interpretación de imagenología.
+• Manejo médico hospitalario.
+• Manejo intermedio de enfermedades: cardiología, oftalmología, endocrinología, ortopédicas, infecciosas.
+• Manejo intermedio de terapia intensiva y manejo de urgencias.
+• Ejecución de procedimientos quirúrgicos especializados en pequeñas especies.
+• Evaluación preoperatoria, desde revisión clínica, historial médico, examen físico y estudios complementarios.
+• Planificación quirúrgica: elección de anestesia, protocolos anestésicos y quirúrgicos, y definición de materiales y equipos necesarios.
+• Manejo del dolor: protocolos de analgesia y control del dolor durante y después de la cirugía.
+• Monitoreo intraoperatorio: vigilar signos vitales y estado anestésico, ajustando según sea necesario.
+• Cuidados postoperatorios: supervisión de heridas, administración de medicamentos, control de infecciones y recomendaciones para recuperación.
+• Comunicación con propietarios, explicación de procedimientos, riesgos, cuidados y pronóstico.</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>Bañador de perritos</v>
+      </c>
+      <c r="B15" t="str">
+        <v>UNIDAD DE SERVICIOS CO...</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Querétaro,, Qro.</v>
+      </c>
+      <c r="D15" t="str">
+        <v>$9,000 - $10,000 Mensual</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L15" t="str" xml:space="preserve">
+        <v xml:space="preserve">¡¡SÉ PARTE DE NUESTRA COMUNIDAD DE PET PARTNERS COMO BAÑADOR DE PERRITOS EN PETCO JURIQUILLA QUERETARO.
+ESTAMOS CONTRATANDO BAÑADOR CANINO - NO NECESITAS EXPERIENCIA
+Ofrecemos:
+Sueldo base mensual de $8,875.00 + Bono $1,183
+Aumentos Salariales conforme subas de Categoría
+Prestaciones de Ley y Superiores
+Descuentos en PETCO del 20 al 40%
+Capacitación continua / Curso de estética canina ¡GRATUITO!
+Plan de crecimiento, te capacitamos para ser ESTILISTA CANINO PROFESONAL
+Requisitos:
+Amor y trato directo con mascotas
+Experiencia en el baño de mascotas (puedes ser con tus propios perritos)
+Disponibilidad de horario (NO ESTUDIANTES, SE ROLAN TURNOS DE 8 HORAS).
+Gran actitud de servicio, organizado, trabajo en equipo.
+Constancia de Situación Fiscal Actualizada
+Funciones:
+Bañado de perros y gatos.
+Apoyo con recepción de mascotas
+Asesoría al cliente en cuanto al mejor corte para su mascota.
+Apoyo de limpieza en el área
+Turnos rolados lunes a domingo, un descanso entre semana
+Horarios: 8am a 5pm, 10am a 7pm, 12:00 a 9pm</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>Cuidador canino</v>
+      </c>
+      <c r="B16" t="str">
+        <v>INTELIGENCIA CANINA</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Miguel Hidalgo,, CDMX</v>
+      </c>
+      <c r="D16" t="str">
+        <v>$8,400 Mensual</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Buscamos un apasionado o apasionada del cuidado canino que se una a nuestro equipo en nuestras sucursales en la CDMX (Anzures, Narvarte, Nápoles, Colonia del Valle, Insurgentes, ). Somos una empresa líder en el cuidador y bienestar de los perritos. Nos destacamos por ofrecer servicios de alta calidad y contar con equipo altamente capacitado que busca promover el amor y respeto hacia los animales.
+Responsabilidades:
+Mantenimiento de la higiene y salud de las mascotas.
+Limpieza de las instalaciones
+Administración de medicamentos y seguimiento de tratamientos.
+Inspecciones físicas diarias para garantizar el bienestar animal.
+Supervisión de la interacción segura entre los perros.
+Atención ocasional a clientes, ofreciendo un servicio excepcional
+Requisitos del puesto
+Experiencia previa en cuidado animal o puestos similares.
+Habilidades de comunicación efectiva y servicio al cliente.
+Capacidad para trabajar en equipo y bajo presión.
+Disponibilidad para trabajar en horarios flexibles
+Ofrecemos:
+Ambiente laboral positivo y orientado al crecimiento profesional.
+Oportunidades de formación y desarrollo continuo.
+Reconocimiento y recompensas por desempeño sobresaliente.
+Beneficios por ser parte de nuestro equipo en nuestros diferentes servicios y productos.
+Estabilidad laboral.
+Cómo Postularse:
+SI ESTAS INTERESADO O INTERESADA EN EL EMPLEO, MANDA UN MENSAJE AL CORREO ELECTRONICO O NÚMERO DE WHATSSAP QUE SE OBSERVA EN LA VACANTE, CON EL SIGUIENTE ASUNTO: "ESTOY INTERESADO/DA EN SER CUIDADOR/A CANINA"</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>Médico veterinario zootecnista</v>
+      </c>
+      <c r="B17" t="str">
+        <v>DogTor Cancún</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Cancún Centro,, Benito Juárez,, Q. Roo</v>
+      </c>
+      <c r="D17" t="str">
+        <v>$25,000 - $35,000 Mensual</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Híbrido</v>
+      </c>
+      <c r="L17" t="str" xml:space="preserve">
+        <v xml:space="preserve">REQUISITOS:
+Especialista en medicina interna y cirugía de perros y gatos
+3 años de experiencia como cirujano
+Deseable Inglés intermedio
+Experiencia sólida en realización de cirugías
+RESPONSABILIDADES:
+Consulta de medicina interna
+Interpretación de imagenología
+Manejo médico hospitalario.
+Manejo intermedio de enfermedades: Cardiología, oftalmología, endocrinología, ortopédicas, infecciosas.
+Manejo intermedio de terapia intensiva y manejo de urgencias
+Ejecución de procedimientos quirúrgicos especializados en pequeñas especies
+Evaluación preoperatoria, desde revisión clínica, historial médico, examen físico y estudios complementarios
+Planificación quirúrgica. Elección de anestesia, protocolos anestésicos y quirúrgicos, y definición de materiales y equipos necesarios.
+Manejo del dolor. Protocolos de analgesia y control del dolor durante y después de la cirugía
+Monitoreo intraoperatorio. Vigilar signos vitales y estado anestésico, ajustando según sea necesario.
+Cuidados postoperatorios. Supervisión de heridas, administración de medicamentos, control de infecciones y recomendaciones para recuperación.
+Comunicación con propietarios, explicación de procedimientos, riesgos, cuidados y pronóstico</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Medico Especialista en medicina interna y cirugia</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Corporativo Laboral y ...</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Residencial Fluvial Vallarta,, Puerto Vallarta,, Jal.</v>
+      </c>
+      <c r="D18" t="str">
+        <v>$35,000 - $42,000 Mensual</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Sector salud</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Especialidades médicas</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Acerca de la empresa
+Hospital Veterinario de alta especialidad, enfocada en atención avanzada y especializada en diversas áreas de la medicina veterinaria. Por expansión esta en busqueda de un; Medico Especialista en medicina interna y cirugia
+Requisitos del puesto:
+Especialista en medicina interna y cirugia de perros y gatos
+Experiencia de dos años como medico veterinario
+Experiencia en realización de cirugías
+Responsabilidades del puesto:
+Realizar de cirugías; ejecutar procedimientos quirúrgicos especializados en pequeñas especies (perros, gatos, otras mascotas), desde tejidos blandos hasta ortopédicas con técnicas e instrumental adecuado.
+Evaluación preoperatoria; revisión clínica completa, historial médico, examen físico y estudios complementarios (laboratorio, radiografías, ecografías) para detectar factores de riesgo. -
+Planificación quirúrgica; elegir tipo de anestesia, preparar protocolos anestésicos y quirúrgicos, y definir materiales y equipos necesarios.
+Manejo del dolor; Aplicar protocolos de anestesia, analgesia y control del dolor durante y después de la cirugía para el bienestar del paciente
+Monitoreo intraoperatorio; vigilar signos vitales y estado anestésico, ajustando según sea necesario.
+Cuidados postoperatorios; Supervisar heridas, administrar medicamentos, controlar infecciones y dar recomendaciones para recuperación.
+Comunicación con propietarios; Explicar procedimiento, riesgos, cuidados y pronóstico para asegurar confianza y cumplimiento.
+Documentación; Registrar detalladamente indicación quirúrgica, procedimientos, evolución y alta médica.
+Gestión del quirófano:; Mantener esterilidad, controlar inventarios de instrumental y materiales, y asegurar calidad y bioseguridad.
+Ofrecemos:
+Sueldo mensual: nominal: $42,000
+Lunes a sabado: 10:00am a 6:00pm (Disponibilidad de guardias nocturnas)
+Prestaciones de ley
+Se brindan cursos especializados para mantenerse al día con técnicas y avances
+Desarrollo y crecimiento profesional
+Ubicación: Av de los grandes Lagos 192-4 fluvial Vallarta, CP 48313, Puerto Vallarta
+Si cuentas con el perfil postulate por este medio</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Medico veterinario cirujano</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Corporativo Laboral y ...</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Puerto Vallarta,, Jal.</v>
+      </c>
+      <c r="D19" t="str">
+        <v>$35,000 - $42,000 Mensual</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Médico veterinario</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Importante hospital veterinario de alta especialidad, por expansión se encuentra en busca de “Médico Veterinario Especialista en cirujias”
+REQUISITOS:
+· Lic. En medicina interna con especialidad como cirujano veterinario
+· 3 años de experiencia como cirujano
+· Deseable Inglés básico intermedio
+RESPONSABILIDADES:
+· Consulta de medicina interna
+· Interpretación de rayos x.
+· Interpretación de pruebas de laboratorio.
+· Manejo médico hospitalario. Manejo básico de ultrasonido ( a fast - t fast).
+· Manejo básico de enfermedades: Cardiología, oftalmología, endocrinas, ortopédicas, infecciosas.
+· Manejo básico de terapia intensiva, anestesia y manejo de urgencias
+· Cirugías para perros y gatos
+· Evaluación preoperatoria y cuidados post operatorios
+OFRECEMOS:
+· Sueldo mensual 42,000 nominales
+· Pago quincenal
+· Prestaciones de ley
+· Horario de lunes a sábado 10 am a 6 pm
+· Disponibilidad para realizar guardias nocturnas
+· Desarrollo profesional
+· Ubicados en Fluvial Vallarta
+Si cumples con estos requisitos, por favor postúlate por este medio y ven a formar parte de este gran equipo de trabajo.</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Bañador de Perritos - Fortuna Linda Vista</v>
+      </c>
+      <c r="B20" t="str">
+        <v>UNIDAD DE SERVICIOS CO...</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Gustavo A. Madero,, CDMX</v>
+      </c>
+      <c r="D20" t="str">
+        <v>$8,500 - $9,000 Mensual</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Secundaria</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L20" t="str" xml:space="preserve">
+        <v xml:space="preserve">¿Quieres aprender de estilismo canino? ¡Nosotros te enseñamos!
+SÉ PARTE DE NUESTRA COMUNIDAD DE PET PARTNERS COMO BAÑADOR DE PERRITOS EN PETCO FORTUNA/ ATANA LINDA VISTA (Zona norte)
+Ofrecemos:
+Sueldo base mensual de $8,800 + Bono $1,100
+Aumentos Salariales conforme subas de Categoría
+Prestaciones de Ley y Superiores
+Descuentos en PETCO del 20 al 40%
+Capacitación continua / Curso de estética canina ¡GRATUITO!
+Plan de crecimiento, te capacitamos para ser ESTILISTA CANINO PROFESONAL
+Requisitos:
+Amor y trato directo con mascotas
+Experiencia en el baño de mascotas (puedes ser con tus propios perritos)
+Disponibilidad de horario (NO ESTUDIANTES, SE ROLAN TURNOS).
+Gran actitud de servicio, organizado, trabajo en equipo.
+Constancia de Situación Fiscal Actualizada
+Funciones:
+Bañado de perros y gatos.
+Apoyo con recepción de mascotas
+Asesoría al cliente en cuanto al mejor corte para su mascota.
+Apoyo de limpieza en el área
+Adjunta tu CV / Solicitud, ¡En breve te contactaremos!</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Dos señoras para limpieza de quedada para zona valle Monterr</v>
+      </c>
+      <c r="B21" t="str">
+        <v>CADENA TEAM COACH</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Monterrey,, N.L.</v>
+      </c>
+      <c r="D21" t="str">
+        <v>$14,000 - $16,000 Mensual</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Servicios generales - Oficios - Seguridad</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Limpieza</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Secundaria</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L21" t="str" xml:space="preserve">
+        <v xml:space="preserve">?Dos señoras para limpieza de quedada para zona Valle Monterrey
+? Familia en zona valle solicita.
+?una señora que trabaja, de lunes a viernes.
+?otra señora trabaja, fin de semana entra viernes al medio día, y sale lunes al medio día.
+? requiere hacer limpieza y algo de cocina básica.
+? requiere haber trabajado mínimo con familias durante 3 años, y tener referencias.
+? gusto por atender perros mansitos.
+? ofrecemos de $3,500 a $4,000. libres semanales.
+? Prestaciones de ley.
+? trabajo de Planta.</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>Bañador canino sin experiencia, apertura Bosque Real Petco L</v>
+      </c>
+      <c r="B22" t="str">
+        <v>La empresa es confidencial o no se encuentra disponible</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v>$ 8,875 - $ 10,946 Mensual</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Ventas</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Venta al detalle - Retail</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Bachillerato
+PETCO MÉXICO
+Mascotas más Saludables, Personas más Felices, te gusta convivir con las mascotas, te gustaría aprender desde 0 de la estética canina y certificarte como estilista canino logrando una estabilidad laboral, capacitándote, recibiendo un salario con prestaciones desde el día 1, esta es tú oportunidad.
+Bañador canino, bañador canino sin experiencia nosotros te capacitamos
+Requisitos:
+Conocimiento básico en comportamiento canino
+Generales en razas de perros, razas
+Manejo de mascotas o mascotas propias
+Generales en bienestar animal
+Experiencia en baño de mascotas propias
+Cuidado y bienestar a las mascotas
+Disponibilidad para trabar de lunes a domingo, descanso entre semana
+Poder rolar turnos cada 15 días de 7 a 4 de 8 a 5 de 9 a 6 de 10 a 7 de 11 a 8
+Funciones:
+Cuidado, la atención, seguridad y bienestar de los animales durante su estancia en la estética animal
+Uso y manejo todas las instalaciones, sistemas, equipos, herramientas y servicios necesarios para la operación diaria de la estética animal
+Ejecutar los protocolos establecidos de sanidad, higiene y limpieza de las instalaciones, sistemas, equipos y herramientas
+Ejecutar el protocolo establecido para el abasto y resurtido de los insumos necesarios en el área de baño de los animales
+Habilidades:
+Gusto por los perritos
+Actitud de servicio al cliente
+Manejo del estrés
+Empatía
+Ordenado
+Paciente
+Disciplinado
+Carismático
+Beneficios:
+Contratación directa por la empresa
+Esquema 100% nominal
+Seguro
+Aguinaldo
+Vacaciones
+Caja de ahorro
+Programa de útiles escolares
+Programa de lentes
+Oportunidad de desarrollo
+Oportunidad de crecimiento laboral
+Estabilidad laboral
+Zona para laborar:
+Blvrd Bosque Real 2-1B, Bosque Real, C.P. 52774 Ciudad de México, Méx.</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Especialista en Masajes y Entrenamiento Físico – Posición Hí</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Empresa confidencial</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v>$ 15,000 - $ 17,000 Mensual</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Deportes - Salud - Belleza</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Masajista</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Estudios universitarios sin terminar</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Estudios universitarios sin terminar
+Sobre el Cliente
+Hombre de 43 años en proceso de recuperación tras dos cirugías (rodilla y hombro).
+10 años sin entrenamiento físico; requiere rutinas suaves, progresivas y enfocadas en rehabilitación y fortalecimiento general.
+Objetivo:* Alcanzar un nivel avanzado en calistenia, ashtanga yoga, escalada y ejercicios de animales. Me preparo para una práctica de meditación avanzada que requiere fuerza física.
+Requisitos
+(Tendrá como compañeras de trabajo a dos colaboradoras (sexo femenino), quienes forman parte del equipo y brindan apoyo en tareas de limpieza, cuidado de los perros y asistencia directa a mí.).
+Disponibilidad para trabajo *presencial* de lunes a viernes en Lomas de Chapultepec, CDMX, *6 horas diarias* (9am a 3pm).
+Experiencia comprobable como *masajista* y *aptitud en entrenamiento físico*, con posibilidad de capacitarse en entrenamiento conforme yo vaya avanzando.
+Conocimientos y experiencia en *uno o más de los siguientes estilos de masaje*:
+Sueco
+Reflexología
+Deportivo
+Reductivo
+Drenaje linfático
+Flexibilidad de horario: la prioridad es acompañar y asistir en las rutinas del cliente; en tiempos libres puedes entrenar por tu cuenta.
+Disponibilidad para viajar a Tequesquitengo* por periodos de hasta una semana o más (transporte, alimentos y hospedaje cubiertos).
+Responsabilidades
+Realizar *dos sesiones de ejercicio personalizadas* al día (1 hora cada una), con descanso entre ambas.
+Apoyar en el proceso de *rehabilitación física*, adaptando los ejercicios al estado actual del cliente y asegurando una progresión segura.
+Supervisar y motivar durante el entrenamiento, asegurando la correcta ejecución de los ejercicios y evitando riesgos de lesión.
+Enfocar el entrenamiento en *calistenia avanzada, ashtanga yoga, escalada y ejercicios de animales* conforme el cliente gane fuerza y movilidad.
+Realizar *una sesión diaria de masaje (1 hora)*, eligiendo la técnica más adecuada según las necesidades del cliente.
+Aprovechar el gimnasio completamente equipado (incluye área de travesía para escalar).
+Durante viajes, compartir recámara con dos mujeres de apoyo habituales. En Tequesquitengo, actividades incluyen entrenamiento en alberca, barras paralelas y caminatas con perros junto al río.
+Perfil Deseado
+Experiencia comprobable en *masaje terapéutico* (al menos uno de los estilos mencionados) y aptitud/interés en entrenamiento físico.
+Conocimientos en calistenia, yoga, escalada y ejercicios funcionales (deseable).
+Actitud paciente, empática y motivadora.
+Compromiso, responsabilidad y discreción.
+Ofrecemos
+Sueldo mensual: $15,000 MXN, con posibilidad de aumento si te integras bien al equipo y demuestras un buen desempeño.
+*Ambiente de trabajo seguro, equipado y positivo:* Espacios cómodos y todo lo necesario para entrenar y desarrollarte profesionalmente.
+*Oportunidad de crecimiento económico:* Posibilidad de incrementar ingresos según desempeño y compromiso.
+*Apoyo integral durante viajes:* Transporte, alimentos y hospedaje cubiertos fuera de la ciudad.
+Si cumples con el perfil y te interesa formar parte de este proyecto de recuperación y acondicionamiento físico a largo plazo, *¡esperamos tu postulación!*</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>VETERINARIO/ AUXILIAR VETERINARIO</v>
+      </c>
+      <c r="B24" t="str">
+        <v>La empresa es confidencial o no se encuentra disponible</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>$ 12,000 Mensual</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Entrenamiento canino</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Bachillerato
+ACERCA DE NOSOTROS
+Experiencia en la cría del Mastín Napolitano, todos nuestros Mastín tienen una magnífica genética.
+Nuestro equipo de profesionales, los cuales, mantienen una atención individualizada y unos grandes cuidados en todo momento en nuestro criadero de Mastín Napolitano.
+¡UNETE A NUESTRO EQUIPO!
+DISPONIBILIDAD DE TIEMPO
+Horario
+Lunes a Sábado de
+8:30 am a 6:30 pm
+Sueldo mensual: $12,000 neto
+Excelente ambiente laboral
+Requisitos y Responsabilidades del puesto
+- Atención y cuidado de perros
+- Limpieza de perreras
+- Paseo de perros
+- Asistencia en crianza y reproducción de perros
+Si cumples con el perfil, Postúlate por este medio</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>AYUDANTE GENERAL</v>
+      </c>
+      <c r="B25" t="str">
+        <v>La empresa es confidencial o no se encuentra disponible</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v>$ 12,000 Mensual</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Bachillerato
+ACERCA DE NOSOTROS
+Experiencia en la cría del Mastín Napolitano, todos nuestros Mastín tienen una magnífica genética.
+Nuestro equipo de profesionales, los cuales, mantienen una atención individualizada y unos grandes cuidados en todo momento en nuestro criadero de Mastín Napolitano.
+¡UNETE A NUESTRO EQUIPO!
+DISPONIBILIDAD DE TIEMPO
+Horario
+Lunes a Sábado de
+8:30 am a 6:30 pm
+Sueldo mensual: $12,000 neto
+Excelente ambiente laboral
+Requisitos y Responsabilidades del puesto
+- Atención y cuidado de perros
+- Limpieza de perreras
+- Paseo de perros
+Si te interesa, postúlate por este medio.</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Aprendiz de Entrenamiento Canino</v>
+      </c>
+      <c r="B26" t="str">
+        <v>La empresa es confidencial o no se encuentra disponible</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v>$ 10,946 Mensual</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Entrenamiento canino</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Bachillerato</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Bachillerato
+PETCO México está buscando un/a apasionado/a por las mascotas para unirse a nuestro equipo como Aprendiz de Entrenador Canino (NOTA: EXPERIENCIA NO NECESARÍA).
+Si amas a los animales, disfrutas del contacto directo con ellos y te entusiasma la idea de desarrollarte como entrenador canino profesional, ¡esta es tu oportunidad! En PETCO, te brindamos la capacitación y el apoyo que necesitas para crecer y hacer una diferencia en la vida de las mascotas y sus dueños.
+Ofrecemos:
+Sueldo base mensual: $8,875.80
+Bono de productividad mensual: $2,071.02 (adicional al sueldo base)
+Aumentos salariales: Conforme avances en las diferentes categorías de entrenamiento.
+Prestaciones de Ley y Superiores: Aguinaldo, vacaciones, prima vacacional, seguro social y beneficios adicionales.
+Descuentos en PETCO: ¡Disfruta de descuentos del 20% al 40% en nuestros productos y servicios!
+Capacitación Continua: Accede a cursos y talleres para tu desarrollo profesional.
+Curso de Entrenador ¡GRATUITO!: Te formamos integralmente para convertirte en un entrenador canino certificado.
+Plan de Crecimiento: Oportunidades reales de desarrollo dentro de la empresa.
+Responsabilidades:
+Apoyo en la recepción de mascotas para servicios de entrenamiento.
+Brindar asesoría básica a los clientes sobre servicios de adiestramiento para sus mascotas.
+Apoyo general en la limpieza y organización del área de trabajo.
+Participación activa en el programa de capacitación para entrenador canino.
+Desarrollo de habilidades para futuras sesiones de entrenamiento bajo supervisión.
+Requisitos:
+¡Amor incondicional y trato directo con mascotas!
+Experiencia básica en el cuidado o entrenamiento de mascotas (se considera la experiencia con tus propios perros).
+Actitud de servicio y excelente disposición para aprender.
+Habilidades de comunicación básica.
+Responsabilidad y compromiso.
+Disponibilidad de horario (considerar horarios rotativos o de fin de semana según la operación de la tienda).
+¡Únete a la familia PETCO y haz carrera haciendo lo que amas!</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Vendedor HPM</v>
+      </c>
+      <c r="B27" t="str">
+        <v>La empresa es confidencial o no se encuentra disponible</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v>Sueldo no mostrado por la empresa</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Administrativo</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Auxiliar administrativo</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Técnico titulado</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Técnico titulado
+Vacante: Vendedor HPM
+Requisitos del puesto
+Educación: Licenciatura o carrera técnica. Título no indispensable.
+Habilidades: Conocimientos medios de Office y herramientas en línea, saber manejar automóvil estándar y conocimientos en productos veterinarios deseable.
+Experiencia: Previa en ventas en general, preferiblemente en el sector veterinario enfocado en pequeñas especies (perros y gatos).
+Conocimiento del mercado de Cd. Juarez.
+Disponibilidad para viajar.
+Disponibilidad de horario.
+Residir en Ciudad Juarez, Chih.
+Honestidad, responsabilidad y actitud de servicio.
+Responsabilidades del puesto
+Realizar prospección y seguimiento de clientes potenciales para generar ventas.
+Brindar asesoramiento y recomendaciones a los clientes sobre los productos veterinarios de la empresa.
+Participar en ferias y eventos relacionados con el sector veterinario para promover los productos y servicios.
+Realizar visitas a Clínicas y mostradores especializados para fortalecer las relaciones comerciales y asegurar la satisfacción del cliente.
+Elaborar informes de ventas y mantener actualizada la base de datos de clientes.
+Alcanzar objetivos de venta establecidos por la empresa.
+Seguimiento a la entrega y Cobranza de sus clientes
+Prestaciones y beneficios adicionales
+Salario mensual competitivo de $13,000 a $15,000 pesos.
+Oportunidades de crecimiento y desarrollo profesional.
+Capacitación continua en productos y técnicas de ventas.
+Prestaciones de ley y seguro de gastos médicos mayores.
+Comisión por venta cobrada.
+Herramientas de trabajo como automóvil y teléfono celular.
+Excelente ambiente de trabajo en un equipo dinámico y comprometido.
+Tipo de puesto: Tiempo completo
+Sueldo: $13,000.00 - $15,000.00 al mes
+Tipo de jornada:
+Incluye fines de semana
+Turno de 8 horas
+Experiencia:
+Ventas: 3 años (Obligatorio)
+Terminología veterinaria: 2 años (Deseable)
+Empleo presencial</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>Bañador canino Vasconcelos o Serena , salario, bono, prestac</v>
+      </c>
+      <c r="B28" t="str">
+        <v>La empresa es confidencial o no se encuentra disponible</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v>$ 8,875 - $ 10,000 Mensual</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Veterinaria - Agricultura</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Estética canina</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Secundaria</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Secundaria
+PETCO MÉXICO
+Mascotas más Saludables, Personas más Felices, empresa dedicada al cuidado y bienestar de las mascotas
+Bañador canino sin experiencia, Vasconcelos o serena
+Objetivo del puesto:
+Cuidado y bienestar de los animales que son tratados en la estética canina.
+Requisitos:
+· Baño de mascotas propias, nosotros te capacitamos
+· Conocimientos básicos protocolos de seguridad e higiene
+· Conocimiento básico en comportamiento canino
+· Generales en razas de perros, razas básico
+· Manejo de mascotas o mascotas propias
+· Generales en bienestar animal
+· Herramientas de trabajo acordes a la actividad
+·Disponibilidad para laborar de lunes a domingo descanso entre semana
+·Poder rolar turnos cada 15 días de 8 a 5 de 9 a 6 de 10 a 7 de 11 a 8 de 12 a 9
+Funciones:
+· Cuidado, la atención, seguridad y bienestar de los animales durante su estancia en la estética animal
+· Uso y manejo todas las instalaciones, sistemas, equipos, herramientas y servicios necesarios para la operación diaria de la estética animal
+· Inspección visual de manera minuciosa sobre el estado de salud general del perro
+· Brindar información necesaria sobre costos de los servicios de estética, promociones, términos, condiciones y políticas generales
+· Venta complementaria de productos, mercancías y artículos de la tienda
+· Ejecutar los protocolos establecidos de sanidad, higiene y limpieza de las instalaciones, sistemas, equipos y herramientas
+· Ejecutar el protocolo establecido para el abasto y resurtido de los insumos necesarios en el área de baño de los animales
+Habilidades:
+· Gusto por los perritos
+· Actitud de servicio al cliente
+· Manejo del estrés
+· Empatía
+· Ordenado
+· Paciente
+· Disciplinado
+· Carismático
+Beneficios:
+· Contratación directa por la empresa
+· Esquema 100% nominal
+· Seguro
+· Aguinaldo
+· Vacaciones
+· Caja de ahorro
+· Programa de útiles escolares
+· Programa de lentes
+· Oportunidad de desarrollo
+· Oportunidad de crecimiento laboral
+· Estabilidad laboral</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Entrenadora Física Personal</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Empresa confidencial</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v>$ 10,000 - $ 12,000 Mensual</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Deportes - Salud - Belleza</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Entrenador personal</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Técnico titulado</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Medio tiempo</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Tiempo parcial</v>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Técnico titulado
+*Sobre el Cliente:*
+- Hombre de 43 años, actualmente en proceso de recuperación tras dos cirugías (rodilla y hombro).
+- Lleva 10 años sin entrenamiento físico, por lo que requiere comenzar con rutinas suaves y progresivas enfocadas en rehabilitación y fortalecimiento general.
+*Requisitos:*
+- Sexo femenino de preferencia
+- Disponibilidad para trabajo presencial de lunes a viernes en Lomas de Chapultepec, CDMX, por 6 horas diarias.
+- Flexibilidad de horario: la prioridad es acompañar y asistir en las rutinas de entrenamiento del cliente, y en tiempos libres puedes entrenar por tu cuenta.
+*Responsabilidades:*
+- Realizar dos sesiones de ejercicio personalizadas al día, de 1 hora cada una, con descanso entre ambas.
+- Apoyar en el proceso de rehabilitación física, adaptando los ejercicios al estado físico actual del cliente y asegurando una progresión segura.
+- Enfocar el entrenamiento en calistenia y escalada, conforme el cliente vaya ganando fuerza y movilidad.
+- Supervisar y motivar durante el entrenamiento, asegurando la correcta ejecución de los ejercicios y evitando cualquier riesgo de lesión.
+- Aprovechar el gimnasio completamente equipado, incluyendo área de travesía para escalar.
+*Viajes:*
+- Disponibilidad para viajar a Tequesquitengo por periodos de hasta una semana o más. En caso de estancias prolongadas, cubro el costo del transporte en autobús.
+- Durante los viajes, compartirás recámara con dos mujeres de apoyo que acompañan al cliente habitualmente.
+- En Tequesquitengo, las actividades incluyen entrenamiento en alberca, uso de barras paralelas y caminatas con perros junto al río.
+*Perfil deseado:*
+- Experiencia comprobable en entrenamiento físico, rehabilitación y/o entrenamiento funcional.
+- Conocimientos en calistenia y escalada (deseable).
+- Actitud paciente, empática y motivadora.
+- Compromiso, responsabilidad y discreción.
+---
+## Ofrecemos
+- *Ambiente de trabajo seguro, equipado y positivo:* Espacios cómodos, con todo lo necesario para entrenar y desarrollarte profesionalmente, en un entorno respetuoso y motivador.
+- *Oportunidad de crecimiento económico:* Remuneración competitiva, con posibilidad de incrementar ingresos de acuerdo con tu desempeño, compromiso y profesionalismo.
+- *Apoyo integral durante viajes:* Cubrimos transporte, alimentos y hospedaje en estancias fuera de la ciudad, asegurando tu comodidad y bienestar en todo momento.
+---
+Si cumples con el perfil y te interesa formar parte de este proyecto de recuperación y acondicionamiento físico, ¡esperamos tu postulación!</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Gerencia Seguridad Alimentaria</v>
+      </c>
+      <c r="B30" t="str">
+        <v>La empresa es confidencial o no se encuentra disponible</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v>$ 25,000 - $ 30,000 Mensual</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Ingeniería</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Ingeniería en alimentos</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Diplomado</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Jornada completa</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requerimientos
+Educación mínima: Diplomado
+Descripción del Puesto:
+Es responsable de establecer, planear, organizar, dirigir, controlar y mejorar los sistemas de seguridad alimentaria y calidad de la empresa siendo la base de los procesos productivos para proveer alimentos seguros, sanos, inocuos y con una calidad constante cumpliendo con la legislación y normativa nacional e internacional, así como los requerimientos y expectativas de los clientes.
+Funciones y Actividades Principales:
+Implementar, informar y vigilar el cumplimiento del Sistema de Gestión de Inocuidad de los Alimentos (SGIA) basado en el código SQF y los sistemas de calidad relacionados.
+Verificar el cumplimiento de la empresa, productos y procesos respecto a las normas, regulaciones, legislación nacionales e internacionales y requisitos de clientes aplicables a la seguridad alimentaria.
+Coordinar, dirigir y controlar las inspecciones tanto de clientes, proveedores, agencias regulatorias o cualquier otra dependencia incluyendo las instituciones autorizadas para certificaciones.
+Verificar y aprobar la información relevante de proveedores (materias primas, materiales de empaque, químicos e insumos) para asegurar la inocuidad y calidad de los productos elaborados.
+Coordinar la verificación de la limpieza, orden, seguridad e higiene del personal operativo, instalaciones, materiales y equipos de la planta.
+Coordinar la realización y verificación de análisis físico-químicos, sensoriales,  microbiológicos, vida de anaquel y otros requeridos.
+Aprobar, elaborar, revisar e implementar los programas, políticas y procedimientos del área.
+Análisis proactivo y oportuno de información del área para la toma de decisiones.
+Resolución de conflictos y toma de decisiones dentro de su área.
+Coordinar los programas de capacitación continua para el personal técnico y operativo en diversos temas relacionados con el área.
+PERFIL
+Requisitos:
+Escolaridad: Ing. en Alimentos o carrera afín (Titulado).
+Experiencia: Más de 4 años en puesto similar en plantas de alimentos.
+Inglés técnico y de negocios intermedio-avanzado (leído y escrito indispensable; deseable comunicación verbal fluida).
+Conocimientos
+Sistemas de inocuidad y certificaciones en alimentos: BPM, HACCP, Controles preventivos, SQF.
+Normativas y regulaciones nacionales e internacionales (alimentos deshidratados para perros).
+Conocimiento en normas de seguridad e higiene y salud ocupacional.
+Auditorías internas, a proveedores, de clientes y agencias regulatorias.
+Microbiología de alimentos.
+Análisis físico-químicos, nutrimentales, vida de anaquel en alimentos.
+Conocimientos técnicos en procesos, ingredientes y empaques para alimentos.
+Conocimiento en proyectos de mejora continua.
+Manejo de herramientas estadísticas.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/web-interface/resultados.xlsx
+++ b/web-interface/resultados.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,19 +442,19 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Maestra</v>
+        <v>Acompañante de menor o Maestro Sombra</v>
       </c>
       <c r="B2" t="str">
-        <v>Asociación Centro de T...</v>
+        <v>La empresa es confidencial o no se encuentra disponible</v>
       </c>
       <c r="C2" t="str">
-        <v>SLP.</v>
+        <v>Hermosillo,, Son.</v>
       </c>
       <c r="D2" t="str">
-        <v>$5,000 - $6,000 Mensual</v>
+        <v>$12,000 Mensual</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <v>Educación</v>
@@ -469,12 +469,284 @@
         <v>Permanente</v>
       </c>
       <c r="J2" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vacante: Acompañante de niño (TDA o Autismo) – Maestro Sombra
+Ubicación: Zona Poniente, Hermosillo
+Horario: lunes a viernes
+Requisitos:
+Sexo indistinto
+Carrera en Pedagogía, Ciencias de la Educación o afín
+Especialidad o experiencia en Educación Especial
+Experiencia como maestro sombra o acompañante educativo
+Paciencia, empatía y habilidades de comunicación
+Responsabilidad y compromiso
+Preferente cuente con carro para su traslado
+Funciones principales:
+Brindar apoyo personalizado a un niño con TDA o Trastorno del Espectro Autista en su entorno escolar
+Favorecer la integración e inclusión en actividades académicas y sociales
+Implementar estrategias de apoyo de acuerdo con el plan educativo
+Colaborar con docentes y padres para dar seguimiento al progreso
+Ofrecemos:
+Contratación directa
+Estabilidad laboral
+Ambiente de trabajo respetuoso y colaborativo</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>Terapeuta</v>
+      </c>
+      <c r="B3" t="str">
+        <v>La empresa es confidencial o no se encuentra disponible</v>
+      </c>
+      <c r="C3" t="str">
+        <v>León,, Gto.</v>
+      </c>
+      <c r="D3" t="str">
+        <v>$14,000 - $16,000 Mensual</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Sector salud</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Terapeuta</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Requisitos del puesto
+Estudios universitarios con título en Terapia.
+Experiencia previa como Terapeuta de niños con Trastornos del espectro autista.
+Gusto por realizar manualidades.
+Habilidad para nadar.
+Licencia de manejo vigente.
+Conocimientos en técnicas de terapia y rehabilitación.
+Licencia o certificación válida en Terapia (deseable).
+Responsabilidades del puesto
+Realizar evaluaciones y diagnósticos de los pacientes.
+Diseñar planes de tratamiento personalizados.
+Realizar sesiones de terapia adaptadas a las necesidades individuales de cada paciente.
+Mantener registros precisos de la evolución de los pacientes.
+Prestaciones y beneficios adicionales
+Salario mensual competitivo de 14000 a 16000.
+Prestaciones de ley.
+Vales de despensa.
+Fondo de ahorro.
+Oportunidades de capacitación y desarrollo profesional en un ambiente de trabajo colaborativo y en constante crecimiento.</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>Psicología clínica</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Fundación Planeta Tea AC</v>
+      </c>
+      <c r="C4" t="str">
+        <v>San Pedro Garza García,, N.L.</v>
+      </c>
+      <c r="D4" t="str">
+        <v>$14,000 - $15,000 Mensual</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Ciencias sociales - Humanidades</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Psicología</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Acerca de la empresa
+Fundación Planeta Tea AC es una organización dedicada a apoyar a niños y adultos con autismo de escasos recursos y sus familias, brindando servicios de psicología clínica y terapias especializadas. Nuestra misión es mejorar la calidad de vida de las personas con autismo a través de la educación y la inclusión en la sociedad. Al unirte a nuestro equipo, tendrás la oportunidad de contribuir a una causa noble y en constante crecimiento, además de recibir apoyo y capacitación continua. Ubicación: San Pedro Garza García, Nuevo León.
+Requisitos del puesto
+Educación mínima: Universitario con título y cédula profesional en Psicología
+Experiencia y conocimiento en la aplicación de pruebas psicológicas.
+Experiencia en pacientes con autismo de mínimo 1 año y 3 años deseable.
+Responsabilidades del puesto
+Evaluación emocional y conductual
+Psicoterapia individual y familiar
+Apoyo en planes educativos individualizados.
+Manejo de citas
+Coordinación de personal
+Prestaciones y beneficios adicionales
+Prestaciones de ley
+Salario mensual de 14000 a 15000.
+Bonos incentivos
+Horario a tiempo completo: Lunes a viernes de 10am a 7pm, con 1 hora de comida y Sábados de 9am a 1:30pm horario corrido.
+Modalidad presencial.
+Oportunidades de capacitación y desarrollo profesional.
+Excelente ambiente de trabajo.</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>Monitora en inclusión educativa (maestro sombra)</v>
+      </c>
+      <c r="B5" t="str">
+        <v>CC INTEGRACION LABORAL</v>
+      </c>
+      <c r="C5" t="str">
+        <v>CDMX</v>
+      </c>
+      <c r="D5" t="str">
+        <v>$8,500 Mensual</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Educación</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Educación especial</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Universitario sin titulo</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Presencial</v>
+      </c>
+      <c r="L5" t="str" xml:space="preserve">
+        <v xml:space="preserve">REQUISITOS:
+Nivel de estudios: Licenciatura (concluida o últimos semestres) Psicología educativa, Pedagogía, Educación especial o afines
+23 a 32 años
+Sexo indistinto
+Estado civil indistinto
+EXPERIENCIA:
+Deseable con niños con autismo, trastornos del neurodesarrollo y/o alguna discapacidad
+HABILIDADES Y COMPETENCIAS:
+Proactiva, comunicación asertiva, responsable, puntual.
+Empatía y sensibilidad emocional, paciencia, tolerancia a la frustración, vocación infantil, compromiso y responsabilidad.
+HORARIO DE TRABAJO:
+De lunes a viernes
+Interesados enviar cv a la dirección de contacto.</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Psicóloga</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Neuro Activa</v>
+      </c>
+      <c r="C6" t="str">
+        <v>CDMX</v>
+      </c>
+      <c r="D6" t="str">
+        <v>$8,364 - $8,500 Mensual</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Educación</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Psicopedagogía</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Tiempo completo</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Híbrido</v>
+      </c>
+      <c r="L6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Acerca de la empresa
+Neuro Activa es una empresa líder en el campo de la educación y la psicopedagogía, comprometida con el desarrollo integral de cada individuo. Trabajar con nosotros significa formar parte de un equipo dedicado a brindar soluciones innovadoras y personalizadas a las necesidades educativas especiales. - Ubicación: Ciudad de México.
+Requisitos del puesto
+Licenciatura en Psicología, Educación Especial, Pedagogía, Psicopedagogía o afines.
+Diplomado o curso en intervención educativa, inclusión escolar o TEA/TDAH. (Deseable)
+Experiencia mínima de 6 meses con niños con necesidades educativas especiales (NEE), Trastorno del Espectro Autista (TEA), TDAH u otras condiciones del neurodesarrollo.
+Conocimientos básicos de adaptaciones curriculares y manejo de conductas.
+Habilidades en regulación emocional, contención y acompañamiento respetuoso.
+Capacidad para implementar estrategias sensoriales, estructuración del entorno y apoyos visuales.
+Buen manejo de la comunicación con familia y equipo docente.
+Responsabilidades del puesto
+Brindar intervención educativa y apoyo a niños con necesidades educativas especiales.
+Implementar estrategias de inclusión escolar y adaptaciones curriculares.
+Colaborar con el equipo docente y familia en el desarrollo del plan de intervención individualizado.
+Únete a nuestro equipo en Neuro Activa y sé parte de un proyecto que transforma vidas a través de la educación inclusiva. ¡Aplica ahora y haz la diferencia!</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>Maestra</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Asociación Centro de T...</v>
+      </c>
+      <c r="C7" t="str">
+        <v>SLP.</v>
+      </c>
+      <c r="D7" t="str">
+        <v>$5,000 - $6,000 Mensual</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Educación</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Educación especial</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Universitario titulado</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Permanente</v>
+      </c>
+      <c r="J7" t="str">
         <v>Medio tiempo</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K7" t="str">
         <v>Híbrido</v>
       </c>
-      <c r="L2" t="str" xml:space="preserve">
+      <c r="L7" t="str" xml:space="preserve">
         <v xml:space="preserve">Acerca de la empresa
 **** Asociación Centro de Terapia Infantil y de Educación Especial es una organización comprometida con el bienestar y desarrollo de niños, niñas y jóvenes con autismo, síndrome de Down y/o discapacidad intelectual. Nuestra misión es brindar un ambiente inclusivo y terapéutico para promover su crecimiento y aprendizaje. - **Ubicación:** San Luis Potosí.
 Requisitos del puesto
@@ -494,215 +766,9 @@
 Ambiente de trabajo colaborativo y respetuoso.</v>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>Monitora en inclusión educativa (maestro sombra)</v>
-      </c>
-      <c r="B3" t="str">
-        <v>CC INTEGRACION LABORAL</v>
-      </c>
-      <c r="C3" t="str">
-        <v>CDMX</v>
-      </c>
-      <c r="D3" t="str">
-        <v>$8,500 Mensual</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Educación</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Educación especial</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Universitario sin titulo</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Permanente</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Tiempo completo</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Presencial</v>
-      </c>
-      <c r="L3" t="str" xml:space="preserve">
-        <v xml:space="preserve">REQUISITOS:
-Nivel de estudios: Licenciatura (concluida o últimos semestres) Psicología educativa, Pedagogía, Educación especial o afines
-23 a 32 años
-Sexo indistinto
-Estado civil indistinto
-EXPERIENCIA:
-Deseable con niños con autismo, trastornos del neurodesarrollo y/o alguna discapacidad
-HABILIDADES Y COMPETENCIAS:
-Proactiva, comunicación asertiva, responsable, puntual.
-Empatía y sensibilidad emocional, paciencia, tolerancia a la frustración, vocación infantil, compromiso y responsabilidad.
-HORARIO DE TRABAJO:
-De lunes a viernes
-Interesados enviar cv a la dirección de contacto.</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>TERAPEUTA ESPECIALIZADA EN TEA Y TDAH</v>
-      </c>
-      <c r="B4" t="str">
-        <v>La empresa es confidencial o no se encuentra disponible</v>
-      </c>
-      <c r="C4" t="str">
-        <v>CDMX</v>
-      </c>
-      <c r="D4" t="str">
-        <v>$9,000 - $12,000 Mensual</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Ciencias sociales - Humanidades</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Psicología</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Universitario sin titulo</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Permanente</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Tiempo completo</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Presencial</v>
-      </c>
-      <c r="L4" t="str" xml:space="preserve">
-        <v xml:space="preserve">TERAPEUTA ESPECIALIZADA EN TEA Y TDAH
-Fundación Valentina – Benito Juárez, Ciudad de México, Anaxágoras 25, Col. Piedad Narvarte, Alcaldía Benito Juárez, CDMX.
-Horario: Lunes a viernes de 8:30 a 18:00 hrs
-Sueldo: $9,000 a $12,000 mensuales (según experiencia)
-OBJETIVO DEL PUESTO
-Brindar atención terapéutica especializada a niños, niñas y adolescentes con diagnóstico de Trastorno del Espectro Autista (TEA) y/o Trastorno por Déficit de Atención e Hiperactividad (TDAH), mediante un enfoque individualizado que favorezca su desarrollo integral, habilidades sociales, comunicación, autorregulación y autonomía.
-PERFIL REQUERIDO
-Sexo: Femenino
-Edad: 25 a 30 años
-Escolaridad: Licenciatura en Psicología (PRINCIPALEMENTE PSICOLOGIA CLINICA), Psicopedagogía, Pedagogía o Terapia Ocupacional, con especialidad o formación en educación especial, neurodiversidad o neurociencias (Indispensable contar con título y cédula profesional o en proceso).
-Formación adicional deseable: Diplomados o certificaciones en ABA, PECS, TEACCH, Denver o afines.
-Experiencia mínima: 1 año comprobable trabajando con población TEA y/o TDAH.
-Residencia: No vivir a más de una hora de distancia del centro.
-HABILIDADES CLAVES
-Saber realizar diagnósticos y valoraciones en TEA y TDAH. ?
-Diseño e implementación de planes terapéuticos individuales.
-Elaboración de bitácoras y reportes terapéuticos.
-Trabajo colaborativo y orientación a familias.
-Alta empatía, responsabilidad, comunicación y observación clínica.
-FUNCIONES PRINCIPALES
-Realización de valoraciones y diagnósticos clínico-funcionales en TEA y TDAH.
-Diseño y aplicación de intervenciones personalizadas.
-Elaboración y entrega mensual de planeaciones terapéuticas.
-Registro y envío de bitácoras mensuales.
-Aplicación de técnicas conductuales y metodologías estructuradas.
-Trabajo coordinado con equipo multidisciplinario.
-Asesoramiento continuo a padres de familia.
-SOLO POSTULARSE SI CUMPLES CON LOS REQUISITOS DEL PERFIL, SOLO PSICOLOGAS CLINICAS ESPECIALIZADAS EN TEA Y TDAH, NO LABORALES</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>Closer SaaS B2B Startup Tecnologica</v>
-      </c>
-      <c r="B5" t="str">
-        <v>La empresa es confidencial o no se encuentra disponible</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Torreón,, Coah.</v>
-      </c>
-      <c r="D5" t="str">
-        <v>$20,000 - $25,000 Mensual</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Ventas</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Comercial</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Universitario titulado</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Permanente</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Tiempo completo</v>
-      </c>
-      <c r="K5" t="str">
-        <v>Híbrido</v>
-      </c>
-      <c r="L5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Empresa:
-SuperLeads — Plataforma SaaS que impulsa las admisiones y la matrícula de instituciones educativas en Latinoamérica mediante tecnología inteligente y procesos comerciales impecables.
-Objetivo del rol
-Ser la primera línea de crecimiento de SuperLeads: realizar prospección outbound diaria (llamadas, correos y LinkedIn) a nuestro *Ideal Customer Profile* (ICP) para generar al menos 30 conexiones efectivas por día y agendar citas calificadas para nuestro equipo de Account Executives.
-Responsabilidades clave
-Ejecutar cadencias multicanal (teléfono, email, LinkedIn) y mantener registro de todo en SuperLeads &lt;- Usas el mejor CRM para vender el mejor CRM educativo, tu capacitación de explicación esta intimamente ligada a tu uso del CRM para vender!
-Detectar necesidades, calificar leads con criterio Bajo, Medio, Alto y concertar reuniones.
-Alcanzar meta semanal de citas asistidas y tasa de respuesta mínima del 15 %.
-Colaborar con Marketing para nutrir leads y con Closers para retroalimentación de calidad.
-Participar en role-plays, coaching, Talleres, Congresos y workshops internos para elevar tu pitch.
-Representar la cultura SuperLeads: presencia real, comunicación consciente y ritmo sostenible.
-Compensación
-Sueldo base: $12,000 MXN brutos/mes
-De $500 MXN a $5,000 MXN por cada cita calificada que se lleve a cabo.
-Ingreso estimado: $40,000 MXN/mes (base + comisiones). &lt;- Buscamos solo gente responsable
-Prestaciones de ley, laptop y línea telefónica corporativa.
-Requisitos
-5 + año en prospección o telemarketing B2B (ventas SaaS o educación, deseable).
-Dominio de llamadas en frío (que no te de miedo ni flojera), redacción de correos y social-selling en LinkedIn, que te guste escribir.
-Conocimiento básico de CRM (HubSpot o similar) y hábito de documentación rigurosa.
-Actitud hunter (eres un cazador y no paras hasta lograr la cita), resiliencia ante la objeción y enfoque a métricas diarias.
-Excelente ortografía y dicción; gusto por aprender y aportar ideas.
-Disponibilidad tiempo completo en oficina de Torreón.
-Lo que ofrecemos
-Plan de carrera claro a Closer en 12-18 meses según performance.
-Formación continua en metodologías de venta consultiva (SPIN, MEDDICC, Challenger).
-Ambiente de alto desempeño con calidez humana: celebramos logros y cuidamos el bienestar.
-Propósito de impacto: ayudar a colegios y universidades a transformar sus admisiones.
----
-¿Te apasiona la prospección, el contacto humano y el mundo EdTech?
-¡Únete a SuperLeads y conviértete en la chispa que encienda el crecimiento educativo en LATAM!
-Tipo de puesto: Tiempo completo
-Sueldo: A partir de $12,000 MXN al mes &lt;- Esto es el inicial, si no ganas 3 veces más esto al menos, te descontraríamos por que nos hacemos daño, nos gusta que las personas con nosotros gane bien y esto lo demuestra.
-Beneficios:
-Aumentos salariales ritmo Startup
-Días de paternidad superiores a los de la ley
-Laptop y celular de la empresa
-&gt;100 Ventas, Carro de la empresa
-Pago complementario:
-Bono anual &gt;52 ventas en el año
-Bono de productividad Pago por Cita asistida
-Tipo de jornada:
-55 horas semanales mínimo
-Como tu las acomodes
-Pregunta(s) de postulación: (Es importante que tengamos estas respuestas.
-Describe en 2-3 líneas tu logro laboral más sobresaliente
-Si te contratamos, ¿cómo serían tus primeros 100 días en SuperLeads?
-¿Tu puesto como impacta directamente los ingresos de la empresa, exactamente?
-Lugar de trabajo: Empleo presencial o Híbrido.
-Fecha de inicio prevista: 01/08/2025
-Solo aplica si crees que eres Player A, osea un Mini-Ceo, entrepeneur, Motivado siempre, Con deficit de atención, Autismo.
-Nos vemos pronto ó no.
-Ing. Ricardo López Reyero
-Founder Comercial SuperLeads</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
   </ignoredErrors>
 </worksheet>
 </file>